--- a/Sem2/exam_2sem/data.xlsx
+++ b/Sem2/exam_2sem/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alina\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alina\Documents\exam_2sem\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBDB945-FDF6-408A-9974-05E2695F28FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFEF1DA-12CF-47A3-8AA3-6A7F15007DD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0888B360-4EA0-4DE1-AE1E-DB1EF2AAD69E}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="505">
   <si>
     <t>Міністерство</t>
   </si>
@@ -1471,12 +1471,120 @@
   <si>
     <t>Веселов Руслан Валерьянович</t>
   </si>
+  <si>
+    <t>кількість років у міністерстві</t>
+  </si>
+  <si>
+    <t>Вища освіта</t>
+  </si>
+  <si>
+    <t>1. Київський національний університет ім.Т. Г. Шевченко - 359</t>
+  </si>
+  <si>
+    <t>2. Національний технічний університет «Київський політехнічний інститут» - 352</t>
+  </si>
+  <si>
+    <t>3. Національний університет «Києво-Могилянська академія» - 343</t>
+  </si>
+  <si>
+    <t>4. Львівський національний університет ім. Івана Франка - 252</t>
+  </si>
+  <si>
+    <t>5. Київський національний економічний університет ім. Вадима Гетьмана  - 251</t>
+  </si>
+  <si>
+    <t>6. Національний юридичний університет ім. Ярослава Мудрого - 236</t>
+  </si>
+  <si>
+    <t>7. Національний авіаційний університет - 204</t>
+  </si>
+  <si>
+    <t>8. Національний університет «Львівська політехніка» - 200</t>
+  </si>
+  <si>
+    <t>9. Національний технічний університет «Харківський політехнічний інститут»  - 188</t>
+  </si>
+  <si>
+    <t>10. Харківський національний університет ім.В. Н.Каразіна - 176</t>
+  </si>
+  <si>
+    <t>11. Національний педагогічний університет ім. М. П. Драгоманова - 165</t>
+  </si>
+  <si>
+    <t>12. Донецький національний технічний університет - 135</t>
+  </si>
+  <si>
+    <t>13. Донецький національний університет  - 134</t>
+  </si>
+  <si>
+    <t>14. Київський національний торгово-економічний університет  - 134</t>
+  </si>
+  <si>
+    <t>15. Одеський національний університет ім. І. І. Мечникова  - 123</t>
+  </si>
+  <si>
+    <t>16. Чернівецький національний університет ім. Юрія Федьковича - 105</t>
+  </si>
+  <si>
+    <t>17. Національний аерокосмічний університет ім. М. Є. Жуковського «Харківський авіаційний інститут» -  104</t>
+  </si>
+  <si>
+    <t>18. Харківський національний університет радіоелектроніки - 96</t>
+  </si>
+  <si>
+    <t>19. Національний університет «Острозька академія» - 96</t>
+  </si>
+  <si>
+    <t>20. Національний університет «Одеська юридична академія» - 95</t>
+  </si>
+  <si>
+    <t>21. Запорізький національний технічний університет - 92</t>
+  </si>
+  <si>
+    <t>22. Національний транспортний університет - 87</t>
+  </si>
+  <si>
+    <t>23. Університет економіки і права «Крок» - 83</t>
+  </si>
+  <si>
+    <t>24. Національний університет харчових технологій - 78</t>
+  </si>
+  <si>
+    <t>25. Запорізький національний університет - 77</t>
+  </si>
+  <si>
+    <t>26. Київський національний університет будівництва і архітектури - 72</t>
+  </si>
+  <si>
+    <t>27. Івано-Франківський національний технічний університет нафти і газу -71</t>
+  </si>
+  <si>
+    <t>28. Київський національний університет технологій та дизайну - 69</t>
+  </si>
+  <si>
+    <t>29. Вінницький національний технічний університет - 69</t>
+  </si>
+  <si>
+    <t>30. Дніпропетровський національний університет ім. Олеся Гончара - 67</t>
+  </si>
+  <si>
+    <t>31. Одеський національний політехнічний університет - 67</t>
+  </si>
+  <si>
+    <t>32. Тернопільський національний технічний університет ім. Івана Пулюя - 67</t>
+  </si>
+  <si>
+    <t>33. Полтавський національний технічний університет ім. Юрія Кондратюка - 67</t>
+  </si>
+  <si>
+    <t>34. Сумський державний університет - 64</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1573,6 +1681,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1637,7 +1752,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1673,6 +1788,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1990,25 +2108,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99E52608-BB7D-47ED-AD61-D59351C8D329}">
-  <dimension ref="A1:L241"/>
+  <dimension ref="A1:M241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A168" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A186" sqref="A186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.88671875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="227.44140625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="255.77734375" style="5" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="37.109375" style="5" customWidth="1"/>
     <col min="4" max="4" width="21.88671875" style="5" customWidth="1"/>
-    <col min="5" max="7" width="26.88671875" style="15"/>
+    <col min="5" max="6" width="26.88671875" style="15"/>
+    <col min="7" max="7" width="23.44140625" style="15" customWidth="1"/>
     <col min="8" max="10" width="26.88671875" style="5"/>
-    <col min="11" max="11" width="12.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="26.88671875" style="5"/>
+    <col min="11" max="11" width="87.77734375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="26.88671875" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2022,12 +2142,17 @@
         <v>3</v>
       </c>
       <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="G1" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="20.399999999999999">
       <c r="A2" s="5" t="str">
-        <f>B2&amp; "&lt;" &amp;C2  &amp;"&gt;" &amp; D2&amp; E2</f>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція у Дніпропетровській області{Антонов;Емельян;Богуславович}</v>
+        <f ca="1">B2 &amp; ";" &amp; C2  &amp;";" &amp; D2&amp;";"&amp; E2&amp;";"&amp;G2&amp;";"&amp;H2</f>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція у Дніпропетровській області;Антонов;Емельян;Богуславович;23; Національний університет «Одеська юридична академія» </v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -2039,23 +2164,40 @@
         <v>9</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f>"{" &amp; REPLACE(L2,SEARCH(" ",L2,1),1,";") &amp; "}"</f>
-        <v>{Антонов;Емельян;Богуславович}</v>
+        <f>"" &amp; REPLACE(M2,SEARCH(" ",M2,1),1,";") &amp; ""</f>
+        <v>Антонов;Емельян;Богуславович</v>
       </c>
       <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="K2" s="7" t="s">
+      <c r="G2" s="5">
+        <f ca="1">RANDBETWEEN(1,34)</f>
+        <v>23</v>
+      </c>
+      <c r="H2" s="5" t="str">
+        <f ca="1">VLOOKUP(RANDBETWEEN(1,34),$J$2:$K$35,2)</f>
+        <v xml:space="preserve"> Національний університет «Одеська юридична академія» </v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="J2" s="18">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="str">
+        <f>MID(I2,SEARCH(".",I2,1)+1,SEARCH("-",I2,LEN(I2)-5)-SEARCH(".",I2,1)-1)</f>
+        <v xml:space="preserve"> Київський національний університет ім.Т. Г. Шевченко </v>
+      </c>
+      <c r="L2" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="L2" s="5" t="str">
-        <f t="shared" ref="L2:L33" si="0">REPLACE(K2,SEARCH(" ",K2,1),1,";")</f>
+      <c r="M2" s="5" t="str">
+        <f t="shared" ref="M2:M33" si="0">REPLACE(L2,SEARCH(" ",L2,1),1,";")</f>
         <v>Антонов;Емельян Богуславович</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13" ht="30.6">
       <c r="A3" s="5" t="str">
-        <f t="shared" ref="A3:A66" si="1">B3&amp; "&lt;" &amp;C3  &amp;"&gt;" &amp; D3&amp; E3</f>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція у Чернівецькій області{Евдокимов;Евдоким;Семенович}</v>
+        <f t="shared" ref="A3:A66" ca="1" si="1">B3 &amp; ";" &amp; C3  &amp;";" &amp; D3&amp;";"&amp; E3&amp;";"&amp;G3&amp;";"&amp;H3</f>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція у Чернівецькій області;Евдокимов;Евдоким;Семенович;9; Київський національний університет ім.Т. Г. Шевченко </v>
       </c>
       <c r="B3" s="5" t="s">
         <v>4</v>
@@ -2067,23 +2209,41 @@
         <v>10</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E66" si="2">"{" &amp; REPLACE(L3,SEARCH(" ",L3,1),1,";") &amp; "}"</f>
-        <v>{Евдокимов;Евдоким;Семенович}</v>
+        <f t="shared" ref="E3:E66" si="2">"" &amp; REPLACE(M3,SEARCH(" ",M3,1),1,";") &amp; ""</f>
+        <v>Евдокимов;Евдоким;Семенович</v>
       </c>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="K3" s="7" t="s">
+      <c r="G3" s="5">
+        <f t="shared" ref="G3:G66" ca="1" si="3">RANDBETWEEN(1,38)</f>
+        <v>9</v>
+      </c>
+      <c r="H3" s="5" t="str">
+        <f t="shared" ref="H3:H66" ca="1" si="4">VLOOKUP(RANDBETWEEN(1,34),$J$2:$K$35,2)</f>
+        <v xml:space="preserve"> Київський національний університет ім.Т. Г. Шевченко </v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>472</v>
+      </c>
+      <c r="J3" s="18">
+        <f>J2+1</f>
+        <v>2</v>
+      </c>
+      <c r="K3" s="5" t="str">
+        <f t="shared" ref="K3:K35" si="5">MID(I3,SEARCH(".",I3,1)+1,SEARCH("-",I3,LEN(I3)-5)-SEARCH(".",I3,1)-1)</f>
+        <v xml:space="preserve"> Національний технічний університет «Київський політехнічний інститут» </v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="L3" s="5" t="str">
+      <c r="M3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Евдокимов;Евдоким Семенович</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13" ht="20.399999999999999">
       <c r="A4" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція у Чернігівській області{Лукин;Герасим;Артемович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція у Чернігівській області;Лукин;Герасим;Артемович;16; Харківський національний університет ім.В. Н.Каразіна </v>
       </c>
       <c r="B4" s="5" t="s">
         <v>4</v>
@@ -2096,22 +2256,40 @@
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Лукин;Герасим;Артемович}</v>
+        <v>Лукин;Герасим;Артемович</v>
       </c>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="K4" s="7" t="s">
+      <c r="G4" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Харківський національний університет ім.В. Н.Каразіна </v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>473</v>
+      </c>
+      <c r="J4" s="18">
+        <f t="shared" ref="J4:J35" si="6">J3+1</f>
+        <v>3</v>
+      </c>
+      <c r="K4" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Національний університет «Києво-Могилянська академія» </v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="L4" s="5" t="str">
+      <c r="M4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Лукин;Герасим Артемович</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13" ht="20.399999999999999">
       <c r="A5" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція Поліського округу{Гурьев;Юрий;Валерьянович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція Поліського округу;Гурьев;Юрий;Валерьянович;23; Національний транспортний університет </v>
       </c>
       <c r="B5" s="5" t="s">
         <v>4</v>
@@ -2124,22 +2302,40 @@
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Гурьев;Юрий;Валерьянович}</v>
+        <v>Гурьев;Юрий;Валерьянович</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="K5" s="7" t="s">
+      <c r="G5" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="H5" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний транспортний університет </v>
+      </c>
+      <c r="I5" s="18" t="s">
+        <v>474</v>
+      </c>
+      <c r="J5" s="18">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Львівський національний університет ім. Івана Франка </v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="L5" s="5" t="str">
+      <c r="M5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Гурьев;Юрий Валерьянович</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="6" spans="1:13" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A6" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція у Миколаївській області{Сафонов;Виталий;Андреевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція у Миколаївській області;Сафонов;Виталий;Андреевич;29; Івано-Франківський національний технічний університет нафти і газу </v>
       </c>
       <c r="B6" s="5" t="s">
         <v>4</v>
@@ -2152,22 +2348,40 @@
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Сафонов;Виталий;Андреевич}</v>
+        <v>Сафонов;Виталий;Андреевич</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="K6" s="7" t="s">
+      <c r="G6" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="H6" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Івано-Франківський національний технічний університет нафти і газу </v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>475</v>
+      </c>
+      <c r="J6" s="18">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Київський національний економічний університет ім. Вадима Гетьмана  </v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="L6" s="5" t="str">
+      <c r="M6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Сафонов;Виталий Андреевич</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13" ht="30.6">
       <c r="A7" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція у Сумській області{Калашников;Леонид;Наумович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція у Сумській області;Калашников;Леонид;Наумович;34; Вінницький національний технічний університет </v>
       </c>
       <c r="B7" s="5" t="s">
         <v>4</v>
@@ -2180,22 +2394,40 @@
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Калашников;Леонид;Наумович}</v>
+        <v>Калашников;Леонид;Наумович</v>
       </c>
       <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="K7" s="7" t="s">
+      <c r="G7" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="H7" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Вінницький національний технічний університет </v>
+      </c>
+      <c r="I7" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="K7" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Національний юридичний університет ім. Ярослава Мудрого </v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="L7" s="5" t="str">
+      <c r="M7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Калашников;Леонид Наумович</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13" ht="20.399999999999999">
       <c r="A8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна Азовська морська екологічна інспекція{Романов;Лавр;Станиславович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна Азовська морська екологічна інспекція;Романов;Лавр;Станиславович;9; Київський національний університет технологій та дизайну </v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
@@ -2208,22 +2440,40 @@
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Романов;Лавр;Станиславович}</v>
+        <v>Романов;Лавр;Станиславович</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="K8" s="7" t="s">
+      <c r="G8" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="H8" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Київський національний університет технологій та дизайну </v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="K8" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Національний авіаційний університет </v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="L8" s="5" t="str">
+      <c r="M8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Романов;Лавр Станиславович</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13" ht="20.399999999999999">
       <c r="A9" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція у Вінницькій області{Зиновьев;Дмитрий;Наумович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція у Вінницькій області;Зиновьев;Дмитрий;Наумович;16; Київський національний економічний університет ім. Вадима Гетьмана  </v>
       </c>
       <c r="B9" s="5" t="s">
         <v>4</v>
@@ -2236,22 +2486,40 @@
       </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Зиновьев;Дмитрий;Наумович}</v>
+        <v>Зиновьев;Дмитрий;Наумович</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="K9" s="7" t="s">
+      <c r="G9" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Київський національний економічний університет ім. Вадима Гетьмана  </v>
+      </c>
+      <c r="I9" s="18" t="s">
+        <v>478</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="K9" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Національний університет «Львівська політехніка» </v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="L9" s="5" t="str">
+      <c r="M9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Зиновьев;Дмитрий Наумович</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13" ht="30.6">
       <c r="A10" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція у Тернопільській області{Лазарев;Константин;Геласьевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція у Тернопільській області;Лазарев;Константин;Геласьевич;14; Національний університет «Острозька академія» </v>
       </c>
       <c r="B10" s="5" t="s">
         <v>4</v>
@@ -2264,22 +2532,40 @@
       </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Лазарев;Константин;Геласьевич}</v>
+        <v>Лазарев;Константин;Геласьевич</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="K10" s="7" t="s">
+      <c r="G10" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H10" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний університет «Острозька академія» </v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>479</v>
+      </c>
+      <c r="J10" s="18">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="K10" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Національний технічний університет «Харківський політехнічний інститут»  </v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="L10" s="5" t="str">
+      <c r="M10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Лазарев;Константин Геласьевич</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="11" spans="1:13" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція у Волинській області{Рябов;Вольдемар;Владимирович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція у Волинській області;Рябов;Вольдемар;Владимирович;10; Національний університет «Львівська політехніка» </v>
       </c>
       <c r="B11" s="5" t="s">
         <v>4</v>
@@ -2292,22 +2578,40 @@
       </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Рябов;Вольдемар;Владимирович}</v>
+        <v>Рябов;Вольдемар;Владимирович</v>
       </c>
       <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="K11" s="7" t="s">
+      <c r="G11" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний університет «Львівська політехніка» </v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>480</v>
+      </c>
+      <c r="J11" s="18">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="K11" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Харківський національний університет ім.В. Н.Каразіна </v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="L11" s="5" t="str">
+      <c r="M11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Рябов;Вольдемар Владимирович</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13" ht="30.6">
       <c r="A12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція у Харківській області{Казаков;Карл;Арсеньевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція у Харківській області;Казаков;Карл;Арсеньевич;31; Київський національний економічний університет ім. Вадима Гетьмана  </v>
       </c>
       <c r="B12" s="5" t="s">
         <v>4</v>
@@ -2320,22 +2624,40 @@
       </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Казаков;Карл;Арсеньевич}</v>
+        <v>Казаков;Карл;Арсеньевич</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="K12" s="7" t="s">
+      <c r="G12" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="H12" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Київський національний економічний університет ім. Вадима Гетьмана  </v>
+      </c>
+      <c r="I12" s="18" t="s">
+        <v>481</v>
+      </c>
+      <c r="J12" s="18">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="K12" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Національний педагогічний університет ім. М. П. Драгоманова </v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="L12" s="5" t="str">
+      <c r="M12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Казаков;Карл Арсеньевич</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13" ht="20.399999999999999">
       <c r="A13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція Кримсько-Чорноморського округу{Гущин;Игнатий;Семенович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція Кримсько-Чорноморського округу;Гущин;Игнатий;Семенович;19; Національний університет харчових технологій </v>
       </c>
       <c r="B13" s="5" t="s">
         <v>4</v>
@@ -2348,22 +2670,40 @@
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Гущин;Игнатий;Семенович}</v>
+        <v>Гущин;Игнатий;Семенович</v>
       </c>
       <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="K13" s="7" t="s">
+      <c r="G13" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H13" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний університет харчових технологій </v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="J13" s="18">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="K13" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Донецький національний технічний університет </v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="L13" s="5" t="str">
+      <c r="M13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Гущин;Игнатий Семенович</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13" ht="20.399999999999999">
       <c r="A14" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція в Одеській області{Сорокин;Овидий;Антонович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція в Одеській області;Сорокин;Овидий;Антонович;35; Національний педагогічний університет ім. М. П. Драгоманова </v>
       </c>
       <c r="B14" s="5" t="s">
         <v>4</v>
@@ -2376,22 +2716,40 @@
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Сорокин;Овидий;Антонович}</v>
+        <v>Сорокин;Овидий;Антонович</v>
       </c>
       <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="K14" s="7" t="s">
+      <c r="G14" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="H14" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний педагогічний університет ім. М. П. Драгоманова </v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="K14" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Донецький національний університет  </v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="L14" s="5" t="str">
+      <c r="M14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Сорокин;Овидий Антонович</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13" ht="20.399999999999999">
       <c r="A15" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція у Луганській області{Сысоев;Аввакуум;Георгьевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція у Луганській області;Сысоев;Аввакуум;Георгьевич;15; Національний університет «Одеська юридична академія» </v>
       </c>
       <c r="B15" s="5" t="s">
         <v>4</v>
@@ -2404,22 +2762,40 @@
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Сысоев;Аввакуум;Георгьевич}</v>
+        <v>Сысоев;Аввакуум;Георгьевич</v>
       </c>
       <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="K15" s="7" t="s">
+      <c r="G15" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="H15" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний університет «Одеська юридична академія» </v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>484</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="K15" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Київський національний торгово-економічний університет  </v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="L15" s="5" t="str">
+      <c r="M15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Сысоев;Аввакуум Георгьевич</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13" ht="20.399999999999999">
       <c r="A16" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція у Донецькій області{Панфилов;Клемент;Донатович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція у Донецькій області;Панфилов;Клемент;Донатович;25; Київський національний економічний університет ім. Вадима Гетьмана  </v>
       </c>
       <c r="B16" s="5" t="s">
         <v>4</v>
@@ -2432,22 +2808,40 @@
       </c>
       <c r="E16" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Панфилов;Клемент;Донатович}</v>
+        <v>Панфилов;Клемент;Донатович</v>
       </c>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="K16" s="7" t="s">
+      <c r="G16" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H16" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Київський національний економічний університет ім. Вадима Гетьмана  </v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>485</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="K16" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Одеський національний університет ім. І. І. Мечникова  </v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="L16" s="5" t="str">
+      <c r="M16" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Панфилов;Клемент Донатович</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:13" ht="30.6">
       <c r="A17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція у Закарпатській області{Дмитриев;Флор;Павлович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція у Закарпатській області;Дмитриев;Флор;Павлович;21; Національний університет «Острозька академія» </v>
       </c>
       <c r="B17" s="5" t="s">
         <v>4</v>
@@ -2460,22 +2854,40 @@
       </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Дмитриев;Флор;Павлович}</v>
+        <v>Дмитриев;Флор;Павлович</v>
       </c>
       <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="K17" s="7" t="s">
+      <c r="G17" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="H17" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний університет «Острозька академія» </v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="J17" s="18">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="K17" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Чернівецький національний університет ім. Юрія Федьковича </v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="L17" s="5" t="str">
+      <c r="M17" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Дмитриев;Флор Павлович</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:13" ht="40.799999999999997">
       <c r="A18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція у Львівській області{Миронов;Алан;Арсеньевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція у Львівській області;Миронов;Алан;Арсеньевич;28; Національний транспортний університет </v>
       </c>
       <c r="B18" s="5" t="s">
         <v>4</v>
@@ -2488,22 +2900,40 @@
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Миронов;Алан;Арсеньевич}</v>
+        <v>Миронов;Алан;Арсеньевич</v>
       </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="K18" s="7" t="s">
+      <c r="G18" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>28</v>
+      </c>
+      <c r="H18" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний транспортний університет </v>
+      </c>
+      <c r="I18" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="J18" s="18">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="K18" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Національний аерокосмічний університет ім. М. Є. Жуковського «Харківський авіаційний інститут» </v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="L18" s="5" t="str">
+      <c r="M18" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Миронов;Алан Арсеньевич</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:13" ht="20.399999999999999">
       <c r="A19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція уХмельницькій області{Павлов;Августин;Парфеньевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція уХмельницькій області;Павлов;Августин;Парфеньевич;30; Київський національний університет ім.Т. Г. Шевченко </v>
       </c>
       <c r="B19" s="5" t="s">
         <v>4</v>
@@ -2516,22 +2946,40 @@
       </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Павлов;Августин;Парфеньевич}</v>
+        <v>Павлов;Августин;Парфеньевич</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="K19" s="7" t="s">
+      <c r="G19" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="H19" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Київський національний університет ім.Т. Г. Шевченко </v>
+      </c>
+      <c r="I19" s="18" t="s">
+        <v>488</v>
+      </c>
+      <c r="J19" s="18">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="K19" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Харківський національний університет радіоелектроніки </v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="L19" s="5" t="str">
+      <c r="M19" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Павлов;Августин Парфеньевич</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="20" spans="1:13" ht="18.600000000000001" customHeight="1" thickBot="1">
       <c r="A20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекція у Запорізькій області{Артемьев;Олег;Ефимович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекція у Запорізькій області;Артемьев;Олег;Ефимович;3; Тернопільський національний технічний університет ім. Івана Пулюя </v>
       </c>
       <c r="B20" s="5" t="s">
         <v>4</v>
@@ -2544,22 +2992,40 @@
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Артемьев;Олег;Ефимович}</v>
+        <v>Артемьев;Олег;Ефимович</v>
       </c>
       <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="K20" s="7" t="s">
+      <c r="G20" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="H20" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Тернопільський національний технічний університет ім. Івана Пулюя </v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>489</v>
+      </c>
+      <c r="J20" s="18">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="K20" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Національний університет «Острозька академія» </v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="L20" s="5" t="str">
+      <c r="M20" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Артемьев;Олег Ефимович</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:13" ht="20.399999999999999">
       <c r="A21" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна екологічна інспекція України&gt;Державна екологічна інспекціяКарпатського округу{Наумов;Нисон;Валерьянович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна екологічна інспекція України;Державна екологічна інспекціяКарпатського округу;Наумов;Нисон;Валерьянович;9; Тернопільський національний технічний університет ім. Івана Пулюя </v>
       </c>
       <c r="B21" s="5" t="s">
         <v>4</v>
@@ -2572,22 +3038,40 @@
       </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Наумов;Нисон;Валерьянович}</v>
+        <v>Наумов;Нисон;Валерьянович</v>
       </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="K21" s="7" t="s">
+      <c r="G21" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="H21" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Тернопільський національний технічний університет ім. Івана Пулюя </v>
+      </c>
+      <c r="I21" s="18" t="s">
+        <v>490</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+      <c r="K21" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Національний університет «Одеська юридична академія» </v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="L21" s="5" t="str">
+      <c r="M21" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Наумов;Нисон Валерьянович</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:13" ht="20.399999999999999">
       <c r="A22" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство України з управління зоною відчуження&gt;Відділ з питань Чорнобильської АЕС та поводження з радіоактивним ядерним паливом{Уваров;Максим;Авдеевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство України з управління зоною відчуження;Відділ з питань Чорнобильської АЕС та поводження з радіоактивним ядерним паливом;Уваров;Максим;Авдеевич;19; Київський національний університет ім.Т. Г. Шевченко </v>
       </c>
       <c r="B22" s="5" t="s">
         <v>4</v>
@@ -2600,22 +3084,40 @@
       </c>
       <c r="E22" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Уваров;Максим;Авдеевич}</v>
+        <v>Уваров;Максим;Авдеевич</v>
       </c>
       <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="K22" s="7" t="s">
+      <c r="G22" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H22" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Київський національний університет ім.Т. Г. Шевченко </v>
+      </c>
+      <c r="I22" s="18" t="s">
+        <v>491</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="6"/>
+        <v>21</v>
+      </c>
+      <c r="K22" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Запорізький національний технічний університет </v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="L22" s="5" t="str">
+      <c r="M22" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Уваров;Максим Авдеевич</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:13" ht="20.399999999999999">
       <c r="A23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство України з управління зоною відчуження&gt;Управління з питань зняття з експлуатації Чорнобильської АЕС та поводження з радіоактивними відходами{Королёв;Валерий;Созонович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство України з управління зоною відчуження;Управління з питань зняття з експлуатації Чорнобильської АЕС та поводження з радіоактивними відходами;Королёв;Валерий;Созонович;1; Національний аерокосмічний університет ім. М. Є. Жуковського «Харківський авіаційний інститут» </v>
       </c>
       <c r="B23" s="5" t="s">
         <v>4</v>
@@ -2628,22 +3130,40 @@
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Королёв;Валерий;Созонович}</v>
+        <v>Королёв;Валерий;Созонович</v>
       </c>
       <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="K23" s="7" t="s">
+      <c r="G23" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H23" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний аерокосмічний університет ім. М. Є. Жуковського «Харківський авіаційний інститут» </v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>492</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="6"/>
+        <v>22</v>
+      </c>
+      <c r="K23" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Національний транспортний університет </v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="L23" s="5" t="str">
+      <c r="M23" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Королёв;Валерий Созонович</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:13" ht="20.399999999999999">
       <c r="A24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство України з управління зоною відчуження&gt;Відділ з питань державної політики у сфері поводження з радіоактивними відходами{Ильин;Сергей;Мэлсович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство України з управління зоною відчуження;Відділ з питань державної політики у сфері поводження з радіоактивними відходами;Ильин;Сергей;Мэлсович;23; Харківський національний університет ім.В. Н.Каразіна </v>
       </c>
       <c r="B24" s="5" t="s">
         <v>4</v>
@@ -2656,22 +3176,40 @@
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Ильин;Сергей;Мэлсович}</v>
+        <v>Ильин;Сергей;Мэлсович</v>
       </c>
       <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="K24" s="7" t="s">
+      <c r="G24" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="H24" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Харківський національний університет ім.В. Н.Каразіна </v>
+      </c>
+      <c r="I24" s="18" t="s">
+        <v>493</v>
+      </c>
+      <c r="J24" s="18">
+        <f t="shared" si="6"/>
+        <v>23</v>
+      </c>
+      <c r="K24" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Університет економіки і права «Крок» </v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="L24" s="5" t="str">
+      <c r="M24" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Ильин;Сергей Мэлсович</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:13" ht="20.399999999999999">
       <c r="A25" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство України з управління зоною відчуження&gt;Управління з питань забезпечення бар'єрної функції зони відчуження, природно - заповідного фонду, радіаційної безпеки, охорони праці та цивільного захисту{Цветков;Климент;Лаврентьевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство України з управління зоною відчуження;Управління з питань забезпечення бар'єрної функції зони відчуження, природно - заповідного фонду, радіаційної безпеки, охорони праці та цивільного захисту;Цветков;Климент;Лаврентьевич;2; Національний авіаційний університет </v>
       </c>
       <c r="B25" s="5" t="s">
         <v>4</v>
@@ -2684,22 +3222,40 @@
       </c>
       <c r="E25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Цветков;Климент;Лаврентьевич}</v>
+        <v>Цветков;Климент;Лаврентьевич</v>
       </c>
       <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="K25" s="7" t="s">
+      <c r="G25" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H25" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний авіаційний університет </v>
+      </c>
+      <c r="I25" s="18" t="s">
+        <v>494</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="K25" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Національний університет харчових технологій </v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="L25" s="5" t="str">
+      <c r="M25" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Цветков;Климент Лаврентьевич</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:13" ht="20.399999999999999">
       <c r="A26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство України з управління зоною відчуження&gt;Відділ з питань забезпечення бар'єрної функції зони відчуження та природно - заповідного фонду{Зуев;Гордий;Авдеевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство України з управління зоною відчуження;Відділ з питань забезпечення бар'єрної функції зони відчуження та природно - заповідного фонду;Зуев;Гордий;Авдеевич;4; Львівський національний університет ім. Івана Франка </v>
       </c>
       <c r="B26" s="5" t="s">
         <v>4</v>
@@ -2712,22 +3268,40 @@
       </c>
       <c r="E26" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Зуев;Гордий;Авдеевич}</v>
+        <v>Зуев;Гордий;Авдеевич</v>
       </c>
       <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="K26" s="7" t="s">
+      <c r="G26" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H26" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Львівський національний університет ім. Івана Франка </v>
+      </c>
+      <c r="I26" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="J26" s="18">
+        <f t="shared" si="6"/>
+        <v>25</v>
+      </c>
+      <c r="K26" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Запорізький національний університет </v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L26" s="5" t="str">
+      <c r="M26" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Зуев;Гордий Авдеевич</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:13" ht="30.6">
       <c r="A27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство України з управління зоною відчуження&gt;Відділ радіаційної безпеки, охорони праці та цивільного захисту{Бобров;Константин;Романович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство України з управління зоною відчуження;Відділ радіаційної безпеки, охорони праці та цивільного захисту;Бобров;Константин;Романович;1; Київський національний економічний університет ім. Вадима Гетьмана  </v>
       </c>
       <c r="B27" s="5" t="s">
         <v>4</v>
@@ -2740,22 +3314,40 @@
       </c>
       <c r="E27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Бобров;Константин;Романович}</v>
+        <v>Бобров;Константин;Романович</v>
       </c>
       <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="K27" s="7" t="s">
+      <c r="G27" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Київський національний економічний університет ім. Вадима Гетьмана  </v>
+      </c>
+      <c r="I27" s="18" t="s">
+        <v>496</v>
+      </c>
+      <c r="J27" s="18">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="K27" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Київський національний університет будівництва і архітектури </v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="L27" s="5" t="str">
+      <c r="M27" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Бобров;Константин Романович</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:13" ht="30.6">
       <c r="A28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство України з управління зоною відчуження&gt;Сектор з питань захисту населення від наслідків Чорнобильської катаствофи{Назаров;Вальтер;Денисович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство України з управління зоною відчуження;Сектор з питань захисту населення від наслідків Чорнобильської катаствофи;Назаров;Вальтер;Денисович;19; Національний університет «Києво-Могилянська академія» </v>
       </c>
       <c r="B28" s="5" t="s">
         <v>4</v>
@@ -2768,22 +3360,40 @@
       </c>
       <c r="E28" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Назаров;Вальтер;Денисович}</v>
+        <v>Назаров;Вальтер;Денисович</v>
       </c>
       <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="K28" s="7" t="s">
+      <c r="G28" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H28" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний університет «Києво-Могилянська академія» </v>
+      </c>
+      <c r="I28" s="18" t="s">
+        <v>497</v>
+      </c>
+      <c r="J28" s="18">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="K28" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Івано-Франківський національний технічний університет нафти і газу </v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="L28" s="5" t="str">
+      <c r="M28" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Назаров;Вальтер Денисович</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:13" ht="30.6">
       <c r="A29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство України з управління зоною відчуження&gt;Відділ економіки та фінансів{Шаров;Кондрат;Юрьевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство України з управління зоною відчуження;Відділ економіки та фінансів;Шаров;Кондрат;Юрьевич;18; Одеський національний університет ім. І. І. Мечникова  </v>
       </c>
       <c r="B29" s="5" t="s">
         <v>4</v>
@@ -2796,22 +3406,40 @@
       </c>
       <c r="E29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Шаров;Кондрат;Юрьевич}</v>
+        <v>Шаров;Кондрат;Юрьевич</v>
       </c>
       <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="K29" s="7" t="s">
+      <c r="G29" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H29" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Одеський національний університет ім. І. І. Мечникова  </v>
+      </c>
+      <c r="I29" s="18" t="s">
+        <v>498</v>
+      </c>
+      <c r="J29" s="18">
+        <f t="shared" si="6"/>
+        <v>28</v>
+      </c>
+      <c r="K29" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Київський національний університет технологій та дизайну </v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="L29" s="5" t="str">
+      <c r="M29" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Шаров;Кондрат Юрьевич</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:13" ht="20.399999999999999">
       <c r="A30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство України з управління зоною відчуження&gt;Відділ архітектури, капітального будівництва, управління майном, роботи над інвестиційними проектави та земельних відносин{Кудряшов;Корней;Аркадьевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство України з управління зоною відчуження;Відділ архітектури, капітального будівництва, управління майном, роботи над інвестиційними проектави та земельних відносин;Кудряшов;Корней;Аркадьевич;29; Університет економіки і права «Крок» </v>
       </c>
       <c r="B30" s="5" t="s">
         <v>4</v>
@@ -2824,22 +3452,40 @@
       </c>
       <c r="E30" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Кудряшов;Корней;Аркадьевич}</v>
+        <v>Кудряшов;Корней;Аркадьевич</v>
       </c>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="K30" s="7" t="s">
+      <c r="G30" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="H30" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Університет економіки і права «Крок» </v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>499</v>
+      </c>
+      <c r="J30" s="18">
+        <f t="shared" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="K30" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Вінницький національний технічний університет </v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="L30" s="5" t="str">
+      <c r="M30" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Кудряшов;Корней Аркадьевич</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:13" ht="30.6">
       <c r="A31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство України з управління зоною відчуження&gt;Відділ з міжнародного співробітництва та зв'язків з громадськістю{Красильников;Гурий;Яковович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство України з управління зоною відчуження;Відділ з міжнародного співробітництва та зв'язків з громадськістю;Красильников;Гурий;Яковович;11; Київський національний університет будівництва і архітектури </v>
       </c>
       <c r="B31" s="5" t="s">
         <v>4</v>
@@ -2852,22 +3498,40 @@
       </c>
       <c r="E31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Красильников;Гурий;Яковович}</v>
+        <v>Красильников;Гурий;Яковович</v>
       </c>
       <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="K31" s="7" t="s">
+      <c r="G31" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="H31" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Київський національний університет будівництва і архітектури </v>
+      </c>
+      <c r="I31" s="18" t="s">
+        <v>500</v>
+      </c>
+      <c r="J31" s="18">
+        <f t="shared" si="6"/>
+        <v>30</v>
+      </c>
+      <c r="K31" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Дніпропетровський національний університет ім. Олеся Гончара </v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="L31" s="5" t="str">
+      <c r="M31" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Красильников;Гурий Яковович</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:13" ht="20.399999999999999">
       <c r="A32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство України з управління зоною відчуження&gt;Сектор бухгалтерського обліку та звітності{Горбунов;Архип;Аркадьевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство України з управління зоною відчуження;Сектор бухгалтерського обліку та звітності;Горбунов;Архип;Аркадьевич;24; Чернівецький національний університет ім. Юрія Федьковича </v>
       </c>
       <c r="B32" s="5" t="s">
         <v>4</v>
@@ -2880,22 +3544,40 @@
       </c>
       <c r="E32" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Горбунов;Архип;Аркадьевич}</v>
+        <v>Горбунов;Архип;Аркадьевич</v>
       </c>
       <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="K32" s="7" t="s">
+      <c r="G32" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="H32" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Чернівецький національний університет ім. Юрія Федьковича </v>
+      </c>
+      <c r="I32" s="18" t="s">
+        <v>501</v>
+      </c>
+      <c r="J32" s="18">
+        <f t="shared" si="6"/>
+        <v>31</v>
+      </c>
+      <c r="K32" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Одеський національний політехнічний університет </v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="L32" s="5" t="str">
+      <c r="M32" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Горбунов;Архип Аркадьевич</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="20.399999999999999">
+    <row r="33" spans="1:13" ht="30.6">
       <c r="A33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна служба геології та надр&gt;Відділ гідрогеології та екогеології{Лихачёв;Станислав;Адольфович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна служба геології та надр;Відділ гідрогеології та екогеології;Лихачёв;Станислав;Адольфович;36; Одеський національний політехнічний університет </v>
       </c>
       <c r="B33" s="5" t="s">
         <v>4</v>
@@ -2908,22 +3590,40 @@
       </c>
       <c r="E33" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Лихачёв;Станислав;Адольфович}</v>
+        <v>Лихачёв;Станислав;Адольфович</v>
       </c>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="K33" s="7" t="s">
+      <c r="G33" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="H33" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Одеський національний політехнічний університет </v>
+      </c>
+      <c r="I33" s="18" t="s">
+        <v>502</v>
+      </c>
+      <c r="J33" s="18">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+      <c r="K33" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Тернопільський національний технічний університет ім. Івана Пулюя </v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="L33" s="5" t="str">
+      <c r="M33" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Лихачёв;Станислав Адольфович</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="20.399999999999999">
+    <row r="34" spans="1:13" ht="30.6">
       <c r="A34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна служба геології та надр&gt;Відділ геологічних і геофізичних досліджень та нафти і газу{Мышкин;Демьян;Сергеевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна служба геології та надр;Відділ геологічних і геофізичних досліджень та нафти і газу;Мышкин;Демьян;Сергеевич;20; Чернівецький національний університет ім. Юрія Федьковича </v>
       </c>
       <c r="B34" s="5" t="s">
         <v>4</v>
@@ -2936,22 +3636,40 @@
       </c>
       <c r="E34" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Мышкин;Демьян;Сергеевич}</v>
+        <v>Мышкин;Демьян;Сергеевич</v>
       </c>
       <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="K34" s="7" t="s">
+      <c r="G34" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H34" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Чернівецький національний університет ім. Юрія Федьковича </v>
+      </c>
+      <c r="I34" s="18" t="s">
+        <v>503</v>
+      </c>
+      <c r="J34" s="18">
+        <f t="shared" si="6"/>
+        <v>33</v>
+      </c>
+      <c r="K34" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Полтавський національний технічний університет ім. Юрія Кондратюка </v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="L34" s="5" t="str">
-        <f t="shared" ref="L34:L65" si="3">REPLACE(K34,SEARCH(" ",K34,1),1,";")</f>
+      <c r="M34" s="5" t="str">
+        <f t="shared" ref="M34:M65" si="7">REPLACE(L34,SEARCH(" ",L34,1),1,";")</f>
         <v>Мышкин;Демьян Сергеевич</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="20.399999999999999">
+    <row r="35" spans="1:13" ht="20.399999999999999">
       <c r="A35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна служба геології та надр&gt;Відділ наукового супроводу геологорозвідувальних робіт{Меркушев;Мирон;Лукьянович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна служба геології та надр;Відділ наукового супроводу геологорозвідувальних робіт;Меркушев;Мирон;Лукьянович;17; Національний транспортний університет </v>
       </c>
       <c r="B35" s="5" t="s">
         <v>4</v>
@@ -2964,22 +3682,40 @@
       </c>
       <c r="E35" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Меркушев;Мирон;Лукьянович}</v>
+        <v>Меркушев;Мирон;Лукьянович</v>
       </c>
       <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="K35" s="7" t="s">
+      <c r="G35" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H35" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний транспортний університет </v>
+      </c>
+      <c r="I35" s="18" t="s">
+        <v>504</v>
+      </c>
+      <c r="J35" s="18">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="K35" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v xml:space="preserve"> Сумський державний університет </v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="L35" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M35" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Меркушев;Мирон Лукьянович</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="20.399999999999999">
+    <row r="36" spans="1:13" ht="20.399999999999999">
       <c r="A36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна служба геології та надр&gt;Відділ рудних та нерудних корисних копалин{Гущин;Леонард;Филатович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна служба геології та надр;Відділ рудних та нерудних корисних копалин;Гущин;Леонард;Филатович;33; Сумський державний університет </v>
       </c>
       <c r="B36" s="5" t="s">
         <v>4</v>
@@ -2992,22 +3728,29 @@
       </c>
       <c r="E36" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Гущин;Леонард;Филатович}</v>
+        <v>Гущин;Леонард;Филатович</v>
       </c>
       <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="K36" s="7" t="s">
+      <c r="G36" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="H36" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Сумський державний університет </v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="L36" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M36" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Гущин;Леонард Филатович</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="20.399999999999999">
+    <row r="37" spans="1:13" ht="20.399999999999999">
       <c r="A37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна служба геології та надр&gt;Відділ з надання надр у користування{Горбачёв;Ираклий;Христофорович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна служба геології та надр;Відділ з надання надр у користування;Горбачёв;Ираклий;Христофорович;20; Запорізький національний університет </v>
       </c>
       <c r="B37" s="5" t="s">
         <v>4</v>
@@ -3020,22 +3763,29 @@
       </c>
       <c r="E37" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Горбачёв;Ираклий;Христофорович}</v>
+        <v>Горбачёв;Ираклий;Христофорович</v>
       </c>
       <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="K37" s="7" t="s">
+      <c r="G37" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H37" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Запорізький національний університет </v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="L37" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M37" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Горбачёв;Ираклий Христофорович</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.399999999999999">
+    <row r="38" spans="1:13" ht="20.399999999999999">
       <c r="A38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна служба геології та надр&gt;Відділ аукціонної діяльності{Зайцев;Натан;Давидович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна служба геології та надр;Відділ аукціонної діяльності;Зайцев;Натан;Давидович;36; Національний університет «Одеська юридична академія» </v>
       </c>
       <c r="B38" s="5" t="s">
         <v>4</v>
@@ -3048,22 +3798,29 @@
       </c>
       <c r="E38" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Зайцев;Натан;Давидович}</v>
+        <v>Зайцев;Натан;Давидович</v>
       </c>
       <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="K38" s="7" t="s">
+      <c r="G38" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="H38" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний університет «Одеська юридична академія» </v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="L38" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M38" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Зайцев;Натан Давидович</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="20.399999999999999">
+    <row r="39" spans="1:13" ht="20.399999999999999">
       <c r="A39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна служба геології та надр&gt;Відділ регуляторної політики та взаємодії з правоохоронними органами{Филатов;Августин;Фролович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна служба геології та надр;Відділ регуляторної політики та взаємодії з правоохоронними органами;Филатов;Августин;Фролович;25; Сумський державний університет </v>
       </c>
       <c r="B39" s="5" t="s">
         <v>4</v>
@@ -3076,22 +3833,29 @@
       </c>
       <c r="E39" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Филатов;Августин;Фролович}</v>
+        <v>Филатов;Августин;Фролович</v>
       </c>
       <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="K39" s="7" t="s">
+      <c r="G39" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H39" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Сумський державний університет </v>
+      </c>
+      <c r="L39" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="L39" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M39" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Филатов;Августин Фролович</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="20.399999999999999">
+    <row r="40" spans="1:13" ht="20.399999999999999">
       <c r="A40" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна служба геології та надр&gt;Відділ міжнародного співробітництва{Якушев;Парамон;Ильяович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна служба геології та надр;Відділ міжнародного співробітництва;Якушев;Парамон;Ильяович;4; Івано-Франківський національний технічний університет нафти і газу </v>
       </c>
       <c r="B40" s="5" t="s">
         <v>4</v>
@@ -3104,22 +3868,29 @@
       </c>
       <c r="E40" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Якушев;Парамон;Ильяович}</v>
+        <v>Якушев;Парамон;Ильяович</v>
       </c>
       <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="K40" s="7" t="s">
+      <c r="G40" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="H40" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Івано-Франківський національний технічний університет нафти і газу </v>
+      </c>
+      <c r="L40" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="L40" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M40" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Якушев;Парамон Ильяович</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="20.399999999999999">
+    <row r="41" spans="1:13" ht="20.399999999999999">
       <c r="A41" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна служба геології та надр&gt;Відділ контролю за геологічним вивченням та використанням надр{Фомичёв;Лаврентий;Даниилович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна служба геології та надр;Відділ контролю за геологічним вивченням та використанням надр;Фомичёв;Лаврентий;Даниилович;13; Національний університет «Острозька академія» </v>
       </c>
       <c r="B41" s="5" t="s">
         <v>4</v>
@@ -3132,22 +3903,29 @@
       </c>
       <c r="E41" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Фомичёв;Лаврентий;Даниилович}</v>
+        <v>Фомичёв;Лаврентий;Даниилович</v>
       </c>
       <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="K41" s="7" t="s">
+      <c r="G41" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H41" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний університет «Острозька академія» </v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="L41" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M41" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Фомичёв;Лаврентий Даниилович</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="20.399999999999999">
+    <row r="42" spans="1:13" ht="20.399999999999999">
       <c r="A42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна служба геології та надр&gt;Центральний міжрегіональний відділ{Данилов;Родион;Семенович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна служба геології та надр;Центральний міжрегіональний відділ;Данилов;Родион;Семенович;29; Київський національний університет будівництва і архітектури </v>
       </c>
       <c r="B42" s="5" t="s">
         <v>4</v>
@@ -3160,22 +3938,29 @@
       </c>
       <c r="E42" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Данилов;Родион;Семенович}</v>
+        <v>Данилов;Родион;Семенович</v>
       </c>
       <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="K42" s="7" t="s">
+      <c r="G42" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="H42" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Київський національний університет будівництва і архітектури </v>
+      </c>
+      <c r="L42" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="L42" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M42" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Данилов;Родион Семенович</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="20.399999999999999">
+    <row r="43" spans="1:13" ht="20.399999999999999">
       <c r="A43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна служба геології та надр&gt;Східний міжрегіональний відділ{Гришин;Модест;Михаилович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна служба геології та надр;Східний міжрегіональний відділ;Гришин;Модест;Михаилович;38; Київський національний університет ім.Т. Г. Шевченко </v>
       </c>
       <c r="B43" s="5" t="s">
         <v>4</v>
@@ -3188,22 +3973,29 @@
       </c>
       <c r="E43" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Гришин;Модест;Михаилович}</v>
+        <v>Гришин;Модест;Михаилович</v>
       </c>
       <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="K43" s="7" t="s">
+      <c r="G43" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="H43" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Київський національний університет ім.Т. Г. Шевченко </v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="L43" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M43" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Гришин;Модест Михаилович</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="20.399999999999999">
+    <row r="44" spans="1:13" ht="20.399999999999999">
       <c r="A44" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна служба геології та надр&gt;Азово-Чорноморський міжрегіональний відділ{Григорьев;Власий;Степанович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна служба геології та надр;Азово-Чорноморський міжрегіональний відділ;Григорьев;Власий;Степанович;25; Запорізький національний технічний університет </v>
       </c>
       <c r="B44" s="5" t="s">
         <v>4</v>
@@ -3216,22 +4008,29 @@
       </c>
       <c r="E44" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Григорьев;Власий;Степанович}</v>
+        <v>Григорьев;Власий;Степанович</v>
       </c>
       <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="K44" s="7" t="s">
+      <c r="G44" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H44" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Запорізький національний технічний університет </v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="L44" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M44" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Григорьев;Власий Степанович</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="20.399999999999999">
+    <row r="45" spans="1:13" ht="20.399999999999999">
       <c r="A45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна служба геології та надр&gt;Відділ оплати праці та бухгалтерського обліку{Гордеев;Михаил;Святославович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна служба геології та надр;Відділ оплати праці та бухгалтерського обліку;Гордеев;Михаил;Святославович;2; Національний університет «Львівська політехніка» </v>
       </c>
       <c r="B45" s="5" t="s">
         <v>4</v>
@@ -3244,22 +4043,29 @@
       </c>
       <c r="E45" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Гордеев;Михаил;Святославович}</v>
+        <v>Гордеев;Михаил;Святославович</v>
       </c>
       <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="K45" s="7" t="s">
+      <c r="G45" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="H45" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний університет «Львівська політехніка» </v>
+      </c>
+      <c r="L45" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="L45" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M45" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Гордеев;Михаил Святославович</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="20.399999999999999">
+    <row r="46" spans="1:13" ht="20.399999999999999">
       <c r="A46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державна служба геології та надр&gt;Відділ матеріально-технічного забезпечення та управління майном{Ситников;Евгений;Альвианович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державна служба геології та надр;Відділ матеріально-технічного забезпечення та управління майном;Ситников;Евгений;Альвианович;20; Київський національний університет технологій та дизайну </v>
       </c>
       <c r="B46" s="5" t="s">
         <v>4</v>
@@ -3272,22 +4078,29 @@
       </c>
       <c r="E46" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Ситников;Евгений;Альвианович}</v>
+        <v>Ситников;Евгений;Альвианович</v>
       </c>
       <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="K46" s="7" t="s">
+      <c r="G46" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="H46" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Київський національний університет технологій та дизайну </v>
+      </c>
+      <c r="L46" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="L46" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M46" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Ситников;Евгений Альвианович</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:13">
       <c r="A47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство водних ресурсів&gt;Управління водних ресурсів{Архипов;Гавриил;Германнович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство водних ресурсів;Управління водних ресурсів;Архипов;Гавриил;Германнович;32; Харківський національний університет ім.В. Н.Каразіна </v>
       </c>
       <c r="B47" s="5" t="s">
         <v>4</v>
@@ -3300,22 +4113,29 @@
       </c>
       <c r="E47" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Архипов;Гавриил;Германнович}</v>
+        <v>Архипов;Гавриил;Германнович</v>
       </c>
       <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="K47" s="7" t="s">
+      <c r="G47" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="H47" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Харківський національний університет ім.В. Н.Каразіна </v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="L47" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M47" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Архипов;Гавриил Германнович</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:13">
       <c r="A48" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство водних ресурсів&gt;Управління експлуатації водогосподарських систем, енергозбереження та механізації{Кудряшов;Никифор;Федосеевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство водних ресурсів;Управління експлуатації водогосподарських систем, енергозбереження та механізації;Кудряшов;Никифор;Федосеевич;19; Чернівецький національний університет ім. Юрія Федьковича </v>
       </c>
       <c r="B48" s="5" t="s">
         <v>4</v>
@@ -3328,22 +4148,29 @@
       </c>
       <c r="E48" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Кудряшов;Никифор;Федосеевич}</v>
+        <v>Кудряшов;Никифор;Федосеевич</v>
       </c>
       <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="K48" s="7" t="s">
+      <c r="G48" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="H48" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Чернівецький національний університет ім. Юрія Федьковича </v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="L48" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M48" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Кудряшов;Никифор Федосеевич</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:13">
       <c r="A49" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство водних ресурсів&gt;Управління економіки, фінансів та інвестицій{Артемьев;Исак;Дмитриевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство водних ресурсів;Управління економіки, фінансів та інвестицій;Артемьев;Исак;Дмитриевич;6; Вінницький національний технічний університет </v>
       </c>
       <c r="B49" s="5" t="s">
         <v>4</v>
@@ -3356,22 +4183,29 @@
       </c>
       <c r="E49" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Артемьев;Исак;Дмитриевич}</v>
+        <v>Артемьев;Исак;Дмитриевич</v>
       </c>
       <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="K49" s="7" t="s">
+      <c r="G49" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H49" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Вінницький національний технічний університет </v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="L49" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M49" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Артемьев;Исак Дмитриевич</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:13">
       <c r="A50" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство водних ресурсів&gt;Відділ методології бухгалтерського обліку та звітності{Миронов;Игнатий;Робертович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство водних ресурсів;Відділ методології бухгалтерського обліку та звітності;Миронов;Игнатий;Робертович;18; Київський національний університет ім.Т. Г. Шевченко </v>
       </c>
       <c r="B50" s="5" t="s">
         <v>4</v>
@@ -3384,22 +4218,29 @@
       </c>
       <c r="E50" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Миронов;Игнатий;Робертович}</v>
+        <v>Миронов;Игнатий;Робертович</v>
       </c>
       <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="K50" s="7" t="s">
+      <c r="G50" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="H50" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Київський національний університет ім.Т. Г. Шевченко </v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="L50" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M50" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Миронов;Игнатий Робертович</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:13">
       <c r="A51" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство водних ресурсів&gt;Відділ зв’язків з громадськістю та документообігу{Степанов;Эрик;Германнович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство водних ресурсів;Відділ зв’язків з громадськістю та документообігу;Степанов;Эрик;Германнович;1; Національний університет харчових технологій </v>
       </c>
       <c r="B51" s="5" t="s">
         <v>4</v>
@@ -3412,22 +4253,29 @@
       </c>
       <c r="E51" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Степанов;Эрик;Германнович}</v>
+        <v>Степанов;Эрик;Германнович</v>
       </c>
       <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="K51" s="7" t="s">
+      <c r="G51" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний університет харчових технологій </v>
+      </c>
+      <c r="L51" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="L51" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M51" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Степанов;Эрик Германнович</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:13">
       <c r="A52" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство водних ресурсів&gt;Сектор з управління персоналом{Михеев;Рудольф;Феликсович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство водних ресурсів;Сектор з управління персоналом;Михеев;Рудольф;Феликсович;33; Тернопільський національний технічний університет ім. Івана Пулюя </v>
       </c>
       <c r="B52" s="5" t="s">
         <v>4</v>
@@ -3440,22 +4288,29 @@
       </c>
       <c r="E52" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Михеев;Рудольф;Феликсович}</v>
+        <v>Михеев;Рудольф;Феликсович</v>
       </c>
       <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="K52" s="7" t="s">
+      <c r="G52" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="H52" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Тернопільський національний технічний університет ім. Івана Пулюя </v>
+      </c>
+      <c r="L52" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="L52" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M52" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Михеев;Рудольф Феликсович</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:13">
       <c r="A53" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство водних ресурсів&gt;Сектор наукового та інформаційного забезпечення{Виноградов;Всеволод;Григорьевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство водних ресурсів;Сектор наукового та інформаційного забезпечення;Виноградов;Всеволод;Григорьевич;37; Національний університет «Львівська політехніка» </v>
       </c>
       <c r="B53" s="5" t="s">
         <v>4</v>
@@ -3468,22 +4323,29 @@
       </c>
       <c r="E53" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Виноградов;Всеволод;Григорьевич}</v>
+        <v>Виноградов;Всеволод;Григорьевич</v>
       </c>
       <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-      <c r="K53" s="7" t="s">
+      <c r="G53" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="H53" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний університет «Львівська політехніка» </v>
+      </c>
+      <c r="L53" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="L53" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M53" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Виноградов;Всеволод Григорьевич</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:13">
       <c r="A54" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство водних ресурсів&gt;Сектор міжнародного співробітництва{Ефремов;Людвиг;Донатович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство водних ресурсів;Сектор міжнародного співробітництва;Ефремов;Людвиг;Донатович;22; Сумський державний університет </v>
       </c>
       <c r="B54" s="5" t="s">
         <v>4</v>
@@ -3496,22 +4358,29 @@
       </c>
       <c r="E54" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Ефремов;Людвиг;Донатович}</v>
+        <v>Ефремов;Людвиг;Донатович</v>
       </c>
       <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-      <c r="K54" s="7" t="s">
+      <c r="G54" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="H54" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Сумський державний університет </v>
+      </c>
+      <c r="L54" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="L54" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M54" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Ефремов;Людвиг Донатович</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:13">
       <c r="A55" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство водних ресурсів&gt;Юридичний сектор{Давыдов;Дональд;Авдеевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство водних ресурсів;Юридичний сектор;Давыдов;Дональд;Авдеевич;30; Львівський національний університет ім. Івана Франка </v>
       </c>
       <c r="B55" s="5" t="s">
         <v>4</v>
@@ -3524,22 +4393,29 @@
       </c>
       <c r="E55" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Давыдов;Дональд;Авдеевич}</v>
+        <v>Давыдов;Дональд;Авдеевич</v>
       </c>
       <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="K55" s="7" t="s">
+      <c r="G55" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="H55" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Львівський національний університет ім. Івана Франка </v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="L55" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M55" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Давыдов;Дональд Авдеевич</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:13">
       <c r="A56" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство екології та природних ресурсів України&lt;Державне агентство водних ресурсів&gt;Сектор внутрішнього аудиту та господарського обслуговування{Буров;Тимур;Эльдарович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство екології та природних ресурсів України;Державне агентство водних ресурсів;Сектор внутрішнього аудиту та господарського обслуговування;Буров;Тимур;Эльдарович;30; Харківський національний університет ім.В. Н.Каразіна </v>
       </c>
       <c r="B56" s="5" t="s">
         <v>4</v>
@@ -3552,22 +4428,29 @@
       </c>
       <c r="E56" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Буров;Тимур;Эльдарович}</v>
+        <v>Буров;Тимур;Эльдарович</v>
       </c>
       <c r="F56" s="5"/>
-      <c r="G56" s="5"/>
-      <c r="K56" s="7" t="s">
+      <c r="G56" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="H56" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Харківський національний університет ім.В. Н.Каразіна </v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="L56" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M56" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Буров;Тимур Эльдарович</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="57" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A57" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство освіти і науки України&lt;Департамент загальної середньої та дошкільної освіти&gt;Відділ взаємодії з місцевими органами виконавчої влади та самоврядування{Орехов;Агафон;Пантелеймонович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент загальної середньої та дошкільної освіти;Відділ взаємодії з місцевими органами виконавчої влади та самоврядування;Орехов;Агафон;Пантелеймонович;17; Національний університет «Острозька академія» </v>
       </c>
       <c r="B57" s="12" t="s">
         <v>63</v>
@@ -3580,22 +4463,29 @@
       </c>
       <c r="E57" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Орехов;Агафон;Пантелеймонович}</v>
+        <v>Орехов;Агафон;Пантелеймонович</v>
       </c>
       <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="K57" s="7" t="s">
+      <c r="G57" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="H57" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний університет «Острозька академія» </v>
+      </c>
+      <c r="L57" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="L57" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M57" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Орехов;Агафон Пантелеймонович</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="58" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A58" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство освіти і науки України&lt;Департамент загальної середньої та дошкільної освіти&gt;Відділ прогнозування розвитку середньої освіти{Крюков;Юлий;Федорович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент загальної середньої та дошкільної освіти;Відділ прогнозування розвитку середньої освіти;Крюков;Юлий;Федорович;13; Запорізький національний університет </v>
       </c>
       <c r="B58" s="12" t="s">
         <v>63</v>
@@ -3608,22 +4498,29 @@
       </c>
       <c r="E58" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Крюков;Юлий;Федорович}</v>
+        <v>Крюков;Юлий;Федорович</v>
       </c>
       <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="K58" s="7" t="s">
+      <c r="G58" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H58" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Запорізький національний університет </v>
+      </c>
+      <c r="L58" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="L58" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M58" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Крюков;Юлий Федорович</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="59" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство освіти і науки України&lt;Департамент загальної середньої та дошкільної освіти&gt;Відділ дошкільної, початкової та спеціальної освіти{Исаков;Альфред;Аркадьевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент загальної середньої та дошкільної освіти;Відділ дошкільної, початкової та спеціальної освіти;Исаков;Альфред;Аркадьевич;24; Національний педагогічний університет ім. М. П. Драгоманова </v>
       </c>
       <c r="B59" s="12" t="s">
         <v>63</v>
@@ -3636,22 +4533,29 @@
       </c>
       <c r="E59" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Исаков;Альфред;Аркадьевич}</v>
+        <v>Исаков;Альфред;Аркадьевич</v>
       </c>
       <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="K59" s="7" t="s">
+      <c r="G59" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="H59" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний педагогічний університет ім. М. П. Драгоманова </v>
+      </c>
+      <c r="L59" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="L59" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M59" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Исаков;Альфред Аркадьевич</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="60" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A60" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство освіти і науки України&lt;Департамент загальної середньої та дошкільної освіти&gt;Відділ природничо-математичної та технологічної освіти{Поляков;Лазарь;Станиславович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент загальної середньої та дошкільної освіти;Відділ природничо-математичної та технологічної освіти;Поляков;Лазарь;Станиславович;6; Запорізький національний університет </v>
       </c>
       <c r="B60" s="12" t="s">
         <v>63</v>
@@ -3664,22 +4568,29 @@
       </c>
       <c r="E60" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Поляков;Лазарь;Станиславович}</v>
+        <v>Поляков;Лазарь;Станиславович</v>
       </c>
       <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="K60" s="7" t="s">
+      <c r="G60" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="H60" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Запорізький національний університет </v>
+      </c>
+      <c r="L60" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="L60" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M60" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Поляков;Лазарь Станиславович</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="61" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A61" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство освіти і науки України&lt;Департамент загальної середньої та дошкільної освіти&gt;Відділ суспільно-гуманітарної освіти{Громов;Донат;Федорович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент загальної середньої та дошкільної освіти;Відділ суспільно-гуманітарної освіти;Громов;Донат;Федорович;14; Університет економіки і права «Крок» </v>
       </c>
       <c r="B61" s="12" t="s">
         <v>63</v>
@@ -3692,22 +4603,29 @@
       </c>
       <c r="E61" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Громов;Донат;Федорович}</v>
+        <v>Громов;Донат;Федорович</v>
       </c>
       <c r="F61" s="5"/>
-      <c r="G61" s="5"/>
-      <c r="K61" s="7" t="s">
+      <c r="G61" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="H61" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Університет економіки і права «Крок» </v>
+      </c>
+      <c r="L61" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="L61" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M61" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Громов;Донат Федорович</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="62" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A62" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство освіти і науки України&lt;Департамент загальної середньої та дошкільної освіти&gt;Сектор сприяння освіті рідною мовою{Борисов;Мартин;Еремеевич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент загальної середньої та дошкільної освіти;Сектор сприяння освіті рідною мовою;Борисов;Мартин;Еремеевич;13; Харківський національний університет радіоелектроніки </v>
       </c>
       <c r="B62" s="12" t="s">
         <v>63</v>
@@ -3720,22 +4638,29 @@
       </c>
       <c r="E62" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Борисов;Мартин;Еремеевич}</v>
+        <v>Борисов;Мартин;Еремеевич</v>
       </c>
       <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="K62" s="7" t="s">
+      <c r="G62" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="H62" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Харківський національний університет радіоелектроніки </v>
+      </c>
+      <c r="L62" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="L62" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M62" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Борисов;Мартин Еремеевич</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="63" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A63" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство освіти і науки України&lt;Департамент професійно-технічної освіти&gt;Відділ професійної підготовки робітничих кадрів{Буров;Оскар;Егорович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент професійно-технічної освіти;Відділ професійної підготовки робітничих кадрів;Буров;Оскар;Егорович;11; Університет економіки і права «Крок» </v>
       </c>
       <c r="B63" s="12" t="s">
         <v>63</v>
@@ -3748,22 +4673,29 @@
       </c>
       <c r="E63" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Буров;Оскар;Егорович}</v>
+        <v>Буров;Оскар;Егорович</v>
       </c>
       <c r="F63" s="5"/>
-      <c r="G63" s="5"/>
-      <c r="K63" s="7" t="s">
+      <c r="G63" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="H63" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Університет економіки і права «Крок» </v>
+      </c>
+      <c r="L63" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="L63" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M63" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Буров;Оскар Егорович</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="64" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство освіти і науки України&lt;Департамент професійно-технічної освіти&gt;Відділ нормативного забезпечення професійно-технічної освіти{Кононов;Кирилл;Петрович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент професійно-технічної освіти;Відділ нормативного забезпечення професійно-технічної освіти;Кононов;Кирилл;Петрович;25; Одеський національний політехнічний університет </v>
       </c>
       <c r="B64" s="12" t="s">
         <v>63</v>
@@ -3776,22 +4708,29 @@
       </c>
       <c r="E64" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Кононов;Кирилл;Петрович}</v>
+        <v>Кононов;Кирилл;Петрович</v>
       </c>
       <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="K64" s="7" t="s">
+      <c r="G64" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="H64" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Одеський національний політехнічний університет </v>
+      </c>
+      <c r="L64" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="L64" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M64" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Кононов;Кирилл Петрович</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="65" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство освіти і науки України&lt;Департамент професійно-технічної освіти&gt;Відділ моніторингу та організаційної роботи{Костин;Гарри;Игоревич}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент професійно-технічної освіти;Відділ моніторингу та організаційної роботи;Костин;Гарри;Игоревич;16; Національний транспортний університет </v>
       </c>
       <c r="B65" s="12" t="s">
         <v>63</v>
@@ -3804,22 +4743,29 @@
       </c>
       <c r="E65" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Костин;Гарри;Игоревич}</v>
+        <v>Костин;Гарри;Игоревич</v>
       </c>
       <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="K65" s="7" t="s">
+      <c r="G65" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="H65" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Національний транспортний університет </v>
+      </c>
+      <c r="L65" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="L65" s="5" t="str">
-        <f t="shared" si="3"/>
+      <c r="M65" s="5" t="str">
+        <f t="shared" si="7"/>
         <v>Костин;Гарри Игоревич</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="66" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A66" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>Міністерство освіти і науки України&lt;Департамент професійно-технічної освіти&gt;Відділ позашкільної освіти, виховної роботи та захисту прав дитини{Шестаков;Абрам;Станиславович}</v>
+        <f t="shared" ca="1" si="1"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент професійно-технічної освіти;Відділ позашкільної освіти, виховної роботи та захисту прав дитини;Шестаков;Абрам;Станиславович;5; Київський національний торгово-економічний університет  </v>
       </c>
       <c r="B66" s="12" t="s">
         <v>63</v>
@@ -3832,22 +4778,29 @@
       </c>
       <c r="E66" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>{Шестаков;Абрам;Станиславович}</v>
+        <v>Шестаков;Абрам;Станиславович</v>
       </c>
       <c r="F66" s="5"/>
-      <c r="G66" s="5"/>
-      <c r="K66" s="7" t="s">
+      <c r="G66" s="5">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="H66" s="5" t="str">
+        <f t="shared" ca="1" si="4"/>
+        <v xml:space="preserve"> Київський національний торгово-економічний університет  </v>
+      </c>
+      <c r="L66" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="L66" s="5" t="str">
-        <f t="shared" ref="L66:L97" si="4">REPLACE(K66,SEARCH(" ",K66,1),1,";")</f>
+      <c r="M66" s="5" t="str">
+        <f t="shared" ref="M66:M97" si="8">REPLACE(L66,SEARCH(" ",L66,1),1,";")</f>
         <v>Шестаков;Абрам Станиславович</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="67" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A67" s="5" t="str">
-        <f t="shared" ref="A67:A130" si="5">B67&amp; "&lt;" &amp;C67  &amp;"&gt;" &amp; D67&amp; E67</f>
-        <v>Міністерство освіти і науки України&lt;Департамент вищої освіти&gt;Відділ моніторингу вищої освіти{Миронов;Людвиг;Митрофанович}</v>
+        <f t="shared" ref="A67:A130" ca="1" si="9">B67 &amp; ";" &amp; C67  &amp;";" &amp; D67&amp;";"&amp; E67&amp;";"&amp;G67&amp;";"&amp;H67</f>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент вищої освіти;Відділ моніторингу вищої освіти;Миронов;Людвиг;Митрофанович;19; Університет економіки і права «Крок» </v>
       </c>
       <c r="B67" s="12" t="s">
         <v>63</v>
@@ -3859,23 +4812,30 @@
         <v>77</v>
       </c>
       <c r="E67" s="5" t="str">
-        <f t="shared" ref="E67:E130" si="6">"{" &amp; REPLACE(L67,SEARCH(" ",L67,1),1,";") &amp; "}"</f>
-        <v>{Миронов;Людвиг;Митрофанович}</v>
+        <f t="shared" ref="E67:E130" si="10">"" &amp; REPLACE(M67,SEARCH(" ",M67,1),1,";") &amp; ""</f>
+        <v>Миронов;Людвиг;Митрофанович</v>
       </c>
       <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="K67" s="7" t="s">
+      <c r="G67" s="5">
+        <f t="shared" ref="G67:G130" ca="1" si="11">RANDBETWEEN(1,38)</f>
+        <v>19</v>
+      </c>
+      <c r="H67" s="5" t="str">
+        <f t="shared" ref="H67:H130" ca="1" si="12">VLOOKUP(RANDBETWEEN(1,34),$J$2:$K$35,2)</f>
+        <v xml:space="preserve"> Університет економіки і права «Крок» </v>
+      </c>
+      <c r="L67" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="L67" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M67" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Миронов;Людвиг Митрофанович</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="68" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A68" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент вищої освіти&gt;Відділ гуманітарної освіти{Цветков;Евгений;Ильяович}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент вищої освіти;Відділ гуманітарної освіти;Цветков;Евгений;Ильяович;19; Національний університет «Львівська політехніка» </v>
       </c>
       <c r="B68" s="12" t="s">
         <v>63</v>
@@ -3887,23 +4847,30 @@
         <v>78</v>
       </c>
       <c r="E68" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Цветков;Евгений;Ильяович}</v>
+        <f t="shared" si="10"/>
+        <v>Цветков;Евгений;Ильяович</v>
       </c>
       <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="K68" s="7" t="s">
+      <c r="G68" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="H68" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний університет «Львівська політехніка» </v>
+      </c>
+      <c r="L68" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="L68" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M68" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Цветков;Евгений Ильяович</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="69" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A69" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент вищої освіти&gt;Відділ педагогічної освіти{Николаев;Гавриил;Тимофеевич}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент вищої освіти;Відділ педагогічної освіти;Николаев;Гавриил;Тимофеевич;5; Донецький національний технічний університет </v>
       </c>
       <c r="B69" s="12" t="s">
         <v>63</v>
@@ -3915,23 +4882,30 @@
         <v>79</v>
       </c>
       <c r="E69" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Николаев;Гавриил;Тимофеевич}</v>
+        <f t="shared" si="10"/>
+        <v>Николаев;Гавриил;Тимофеевич</v>
       </c>
       <c r="F69" s="5"/>
-      <c r="G69" s="5"/>
-      <c r="K69" s="7" t="s">
+      <c r="G69" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="H69" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Донецький національний технічний університет </v>
+      </c>
+      <c r="L69" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="L69" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M69" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Николаев;Гавриил Тимофеевич</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="70" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A70" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент вищої освіти&gt;Відділ природничої та технічної освіти{Якушев;Севастьян;Вениаминович}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент вищої освіти;Відділ природничої та технічної освіти;Якушев;Севастьян;Вениаминович;26; Харківський національний університет ім.В. Н.Каразіна </v>
       </c>
       <c r="B70" s="12" t="s">
         <v>63</v>
@@ -3943,23 +4917,30 @@
         <v>80</v>
       </c>
       <c r="E70" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Якушев;Севастьян;Вениаминович}</v>
+        <f t="shared" si="10"/>
+        <v>Якушев;Севастьян;Вениаминович</v>
       </c>
       <c r="F70" s="5"/>
-      <c r="G70" s="5"/>
-      <c r="K70" s="7" t="s">
+      <c r="G70" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="H70" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Харківський національний університет ім.В. Н.Каразіна </v>
+      </c>
+      <c r="L70" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="L70" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M70" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Якушев;Севастьян Вениаминович</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="71" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A71" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент вищої освіти&gt;Сектор післядипломної освіти{Тетерин;Степан;Константинович}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент вищої освіти;Сектор післядипломної освіти;Тетерин;Степан;Константинович;13; Сумський державний університет </v>
       </c>
       <c r="B71" s="12" t="s">
         <v>63</v>
@@ -3971,23 +4952,30 @@
         <v>81</v>
       </c>
       <c r="E71" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Тетерин;Степан;Константинович}</v>
+        <f t="shared" si="10"/>
+        <v>Тетерин;Степан;Константинович</v>
       </c>
       <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="K71" s="7" t="s">
+      <c r="G71" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="H71" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Сумський державний університет </v>
+      </c>
+      <c r="L71" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="L71" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M71" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Тетерин;Степан Константинович</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="72" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A72" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент вищої освіти&gt;Сектор освіти військових формувань і правоохоронних органів{Соловьёв;Панкратий;Евгеньевич}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент вищої освіти;Сектор освіти військових формувань і правоохоронних органів;Соловьёв;Панкратий;Евгеньевич;5; Полтавський національний технічний університет ім. Юрія Кондратюка </v>
       </c>
       <c r="B72" s="12" t="s">
         <v>63</v>
@@ -3999,23 +4987,30 @@
         <v>82</v>
       </c>
       <c r="E72" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Соловьёв;Панкратий;Евгеньевич}</v>
+        <f t="shared" si="10"/>
+        <v>Соловьёв;Панкратий;Евгеньевич</v>
       </c>
       <c r="F72" s="5"/>
-      <c r="G72" s="5"/>
-      <c r="K72" s="7" t="s">
+      <c r="G72" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="H72" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Полтавський національний технічний університет ім. Юрія Кондратюка </v>
+      </c>
+      <c r="L72" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="L72" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M72" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Соловьёв;Панкратий Евгеньевич</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="73" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A73" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент вищої освіти&gt;Сектор підготовки молодших {Лихачёв;Леонид;Георгьевич}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент вищої освіти;Сектор підготовки молодших ;Лихачёв;Леонид;Георгьевич;16; Національний аерокосмічний університет ім. М. Є. Жуковського «Харківський авіаційний інститут» </v>
       </c>
       <c r="B73" s="12" t="s">
         <v>63</v>
@@ -4027,23 +5022,30 @@
         <v>83</v>
       </c>
       <c r="E73" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Лихачёв;Леонид;Георгьевич}</v>
+        <f t="shared" si="10"/>
+        <v>Лихачёв;Леонид;Георгьевич</v>
       </c>
       <c r="F73" s="5"/>
-      <c r="G73" s="5"/>
-      <c r="K73" s="7" t="s">
+      <c r="G73" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="H73" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний аерокосмічний університет ім. М. Є. Жуковського «Харківський авіаційний інститут» </v>
+      </c>
+      <c r="L73" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="L73" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M73" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Лихачёв;Леонид Георгьевич</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="74" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A74" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент науково-технологічного розвитку&gt;Відділ прогнозування та інформаційно-аналітичного забезпечення{Дорофеев;Эдуард;Рудольфович}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент науково-технологічного розвитку;Відділ прогнозування та інформаційно-аналітичного забезпечення;Дорофеев;Эдуард;Рудольфович;10; Київський національний університет ім.Т. Г. Шевченко </v>
       </c>
       <c r="B74" s="12" t="s">
         <v>63</v>
@@ -4055,23 +5057,30 @@
         <v>85</v>
       </c>
       <c r="E74" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Дорофеев;Эдуард;Рудольфович}</v>
+        <f t="shared" si="10"/>
+        <v>Дорофеев;Эдуард;Рудольфович</v>
       </c>
       <c r="F74" s="5"/>
-      <c r="G74" s="5"/>
-      <c r="K74" s="7" t="s">
+      <c r="G74" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>10</v>
+      </c>
+      <c r="H74" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Київський національний університет ім.Т. Г. Шевченко </v>
+      </c>
+      <c r="L74" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="L74" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M74" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Дорофеев;Эдуард Рудольфович</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="75" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A75" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент науково-технологічного розвитку&gt;Сектор координації соціальних гарантій працівників науково-технічної сфери{Кириллов;Владлен;Матвеевич}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент науково-технологічного розвитку;Сектор координації соціальних гарантій працівників науково-технічної сфери;Кириллов;Владлен;Матвеевич;21; Одеський національний політехнічний університет </v>
       </c>
       <c r="B75" s="12" t="s">
         <v>63</v>
@@ -4083,23 +5092,30 @@
         <v>86</v>
       </c>
       <c r="E75" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Кириллов;Владлен;Матвеевич}</v>
+        <f t="shared" si="10"/>
+        <v>Кириллов;Владлен;Матвеевич</v>
       </c>
       <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="K75" s="7" t="s">
+      <c r="G75" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="H75" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Одеський національний політехнічний університет </v>
+      </c>
+      <c r="L75" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="L75" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M75" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Кириллов;Владлен Матвеевич</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="76" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A76" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент науково-технологічного розвитку&gt;Відділ координації наукових досліджень вищих навчальних закладів та наукових установ{Зайцев;Арнольд;Мартынович}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент науково-технологічного розвитку;Відділ координації наукових досліджень вищих навчальних закладів та наукових установ;Зайцев;Арнольд;Мартынович;14; Чернівецький національний університет ім. Юрія Федьковича </v>
       </c>
       <c r="B76" s="12" t="s">
         <v>63</v>
@@ -4111,23 +5127,30 @@
         <v>87</v>
       </c>
       <c r="E76" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Зайцев;Арнольд;Мартынович}</v>
+        <f t="shared" si="10"/>
+        <v>Зайцев;Арнольд;Мартынович</v>
       </c>
       <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="K76" s="7" t="s">
+      <c r="G76" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="H76" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Чернівецький національний університет ім. Юрія Федьковича </v>
+      </c>
+      <c r="L76" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="L76" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M76" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Зайцев;Арнольд Мартынович</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="77" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A77" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент науково-технологічного розвитку&gt;Відділ науково-технічних програм{Голубев;Эрнест;Аркадьевич}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент науково-технологічного розвитку;Відділ науково-технічних програм;Голубев;Эрнест;Аркадьевич;28; Харківський національний університет ім.В. Н.Каразіна </v>
       </c>
       <c r="B77" s="12" t="s">
         <v>63</v>
@@ -4139,23 +5162,30 @@
         <v>88</v>
       </c>
       <c r="E77" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Голубев;Эрнест;Аркадьевич}</v>
+        <f t="shared" si="10"/>
+        <v>Голубев;Эрнест;Аркадьевич</v>
       </c>
       <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="K77" s="7" t="s">
+      <c r="G77" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="H77" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Харківський національний університет ім.В. Н.Каразіна </v>
+      </c>
+      <c r="L77" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="L77" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M77" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Голубев;Эрнест Аркадьевич</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="78" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A78" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент науково-технологічного розвитку&gt;Відділ державного замовлення{Мамонтов;Филипп;Яковлевич}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент науково-технологічного розвитку;Відділ державного замовлення;Мамонтов;Филипп;Яковлевич;5; Львівський національний університет ім. Івана Франка </v>
       </c>
       <c r="B78" s="12" t="s">
         <v>63</v>
@@ -4167,23 +5197,30 @@
         <v>89</v>
       </c>
       <c r="E78" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Мамонтов;Филипп;Яковлевич}</v>
+        <f t="shared" si="10"/>
+        <v>Мамонтов;Филипп;Яковлевич</v>
       </c>
       <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="K78" s="7" t="s">
+      <c r="G78" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="H78" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Львівський національний університет ім. Івана Франка </v>
+      </c>
+      <c r="L78" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="L78" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M78" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Мамонтов;Филипп Яковлевич</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="79" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A79" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент інновацій та трансферу технологій&gt;Відділ експертизи та реєстрації проектів{Голубев;Нинель;Степанович}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент інновацій та трансферу технологій;Відділ експертизи та реєстрації проектів;Голубев;Нинель;Степанович;15; Національний університет «Одеська юридична академія» </v>
       </c>
       <c r="B79" s="12" t="s">
         <v>63</v>
@@ -4195,23 +5232,30 @@
         <v>91</v>
       </c>
       <c r="E79" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Голубев;Нинель;Степанович}</v>
+        <f t="shared" si="10"/>
+        <v>Голубев;Нинель;Степанович</v>
       </c>
       <c r="F79" s="5"/>
-      <c r="G79" s="5"/>
-      <c r="K79" s="7" t="s">
+      <c r="G79" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>15</v>
+      </c>
+      <c r="H79" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний університет «Одеська юридична академія» </v>
+      </c>
+      <c r="L79" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="L79" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M79" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Голубев;Нинель Степанович</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="80" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A80" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент інновацій та трансферу технологій&gt;Відділ моніторингу і контролю реалізації проектів{Селезнёв;Игнат;Донатович}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент інновацій та трансферу технологій;Відділ моніторингу і контролю реалізації проектів;Селезнёв;Игнат;Донатович;9; Сумський державний університет </v>
       </c>
       <c r="B80" s="12" t="s">
         <v>63</v>
@@ -4223,23 +5267,30 @@
         <v>92</v>
       </c>
       <c r="E80" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Селезнёв;Игнат;Донатович}</v>
+        <f t="shared" si="10"/>
+        <v>Селезнёв;Игнат;Донатович</v>
       </c>
       <c r="F80" s="5"/>
-      <c r="G80" s="5"/>
-      <c r="K80" s="7" t="s">
+      <c r="G80" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="H80" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Сумський державний університет </v>
+      </c>
+      <c r="L80" s="7" t="s">
         <v>307</v>
       </c>
-      <c r="L80" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M80" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Селезнёв;Игнат Донатович</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="81" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A81" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент інновацій та трансферу технологій&gt;Відділ розвитку інфраструктури трансферу технологій{Ситников;Елисей;Проклович}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент інновацій та трансферу технологій;Відділ розвитку інфраструктури трансферу технологій;Ситников;Елисей;Проклович;21; Національний університет «Острозька академія» </v>
       </c>
       <c r="B81" s="12" t="s">
         <v>63</v>
@@ -4251,23 +5302,30 @@
         <v>93</v>
       </c>
       <c r="E81" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Ситников;Елисей;Проклович}</v>
+        <f t="shared" si="10"/>
+        <v>Ситников;Елисей;Проклович</v>
       </c>
       <c r="F81" s="5"/>
-      <c r="G81" s="5"/>
-      <c r="K81" s="7" t="s">
+      <c r="G81" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="H81" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний університет «Острозька академія» </v>
+      </c>
+      <c r="L81" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="L81" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M81" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Ситников;Елисей Проклович</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="82" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A82" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент інновацій та трансферу технологій&gt;Відділ трансферу технологій та пріоритетів інноваційного розвитку{Федотова;Янита;Иринеевна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент інновацій та трансферу технологій;Відділ трансферу технологій та пріоритетів інноваційного розвитку;Федотова;Янита;Иринеевна;37; Запорізький національний університет </v>
       </c>
       <c r="B82" s="12" t="s">
         <v>63</v>
@@ -4279,23 +5337,30 @@
         <v>94</v>
       </c>
       <c r="E82" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Федотова;Янита;Иринеевна}</v>
+        <f t="shared" si="10"/>
+        <v>Федотова;Янита;Иринеевна</v>
       </c>
       <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="K82" s="7" t="s">
+      <c r="G82" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="H82" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Запорізький національний університет </v>
+      </c>
+      <c r="L82" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="L82" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M82" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Федотова;Янита Иринеевна</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="83" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A83" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент атестації кадрів вищої кваліфікації&gt;{Блохина;Дарьяна;Вениаминовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент атестації кадрів вищої кваліфікації;;Блохина;Дарьяна;Вениаминовна;17; Національний юридичний університет ім. Ярослава Мудрого </v>
       </c>
       <c r="B83" s="12" t="s">
         <v>63</v>
@@ -4304,23 +5369,30 @@
         <v>95</v>
       </c>
       <c r="E83" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Блохина;Дарьяна;Вениаминовна}</v>
+        <f t="shared" si="10"/>
+        <v>Блохина;Дарьяна;Вениаминовна</v>
       </c>
       <c r="F83" s="5"/>
-      <c r="G83" s="5"/>
-      <c r="K83" s="7" t="s">
+      <c r="G83" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>17</v>
+      </c>
+      <c r="H83" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний юридичний університет ім. Ярослава Мудрого </v>
+      </c>
+      <c r="L83" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="L83" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M83" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Блохина;Дарьяна Вениаминовна</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="84" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A84" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент управління справами&gt;{Владимирова;Виргиния;Борисовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент управління справами;;Владимирова;Виргиния;Борисовна;7; Національний авіаційний університет </v>
       </c>
       <c r="B84" s="12" t="s">
         <v>63</v>
@@ -4329,23 +5401,30 @@
         <v>96</v>
       </c>
       <c r="E84" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Владимирова;Виргиния;Борисовна}</v>
+        <f t="shared" si="10"/>
+        <v>Владимирова;Виргиния;Борисовна</v>
       </c>
       <c r="F84" s="5"/>
-      <c r="G84" s="5"/>
-      <c r="K84" s="7" t="s">
+      <c r="G84" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="H84" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний авіаційний університет </v>
+      </c>
+      <c r="L84" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="L84" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M84" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Владимирова;Виргиния Борисовна</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="85" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A85" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Юридичний департамент&gt;{Жукова;Эмилия;Львовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Юридичний департамент;;Жукова;Эмилия;Львовна;20; Запорізький національний технічний університет </v>
       </c>
       <c r="B85" s="12" t="s">
         <v>63</v>
@@ -4354,23 +5433,30 @@
         <v>97</v>
       </c>
       <c r="E85" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Жукова;Эмилия;Львовна}</v>
+        <f t="shared" si="10"/>
+        <v>Жукова;Эмилия;Львовна</v>
       </c>
       <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="K85" s="7" t="s">
+      <c r="G85" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="H85" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Запорізький національний технічний університет </v>
+      </c>
+      <c r="L85" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="L85" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M85" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Жукова;Эмилия Львовна</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="86" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A86" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент економіки та фінансування&gt;Планово-фінансовий відділ{Сысоева;Вера;Авксентьевна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент економіки та фінансування;Планово-фінансовий відділ;Сысоева;Вера;Авксентьевна;32; Національний аерокосмічний університет ім. М. Є. Жуковського «Харківський авіаційний інститут» </v>
       </c>
       <c r="B86" s="12" t="s">
         <v>63</v>
@@ -4382,23 +5468,30 @@
         <v>99</v>
       </c>
       <c r="E86" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Сысоева;Вера;Авксентьевна}</v>
+        <f t="shared" si="10"/>
+        <v>Сысоева;Вера;Авксентьевна</v>
       </c>
       <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="K86" s="7" t="s">
+      <c r="G86" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="H86" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний аерокосмічний університет ім. М. Є. Жуковського «Харківський авіаційний інститут» </v>
+      </c>
+      <c r="L86" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="L86" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M86" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Сысоева;Вера Авксентьевна</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="87" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A87" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент економіки та фінансування&gt;Відділ фінансування науково-технічних проектів{Зимина;Валерия;Максовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент економіки та фінансування;Відділ фінансування науково-технічних проектів;Зимина;Валерия;Максовна;36; Національний технічний університет «Харківський політехнічний інститут»  </v>
       </c>
       <c r="B87" s="12" t="s">
         <v>63</v>
@@ -4410,23 +5503,30 @@
         <v>100</v>
       </c>
       <c r="E87" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Зимина;Валерия;Максовна}</v>
+        <f t="shared" si="10"/>
+        <v>Зимина;Валерия;Максовна</v>
       </c>
       <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="K87" s="7" t="s">
+      <c r="G87" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="H87" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний технічний університет «Харківський політехнічний інститут»  </v>
+      </c>
+      <c r="L87" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="L87" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M87" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Зимина;Валерия Максовна</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="88" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A88" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент економіки та фінансування&gt;Відділ праці та нормативно-інформаційного забезпечення{Шарова;Христина;Святославовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент економіки та фінансування;Відділ праці та нормативно-інформаційного забезпечення;Шарова;Христина;Святославовна;31; Львівський національний університет ім. Івана Франка </v>
       </c>
       <c r="B88" s="12" t="s">
         <v>63</v>
@@ -4438,23 +5538,30 @@
         <v>101</v>
       </c>
       <c r="E88" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Шарова;Христина;Святославовна}</v>
+        <f t="shared" si="10"/>
+        <v>Шарова;Христина;Святославовна</v>
       </c>
       <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="K88" s="7" t="s">
+      <c r="G88" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="H88" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Львівський національний університет ім. Івана Франка </v>
+      </c>
+      <c r="L88" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="L88" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M88" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Шарова;Христина Святославовна</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="89" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A89" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент економіки та фінансування&gt;Відділ матеріально-технічної бази{Титова;Неолина;Владиславовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент економіки та фінансування;Відділ матеріально-технічної бази;Титова;Неолина;Владиславовна;8; Київський національний торгово-економічний університет  </v>
       </c>
       <c r="B89" s="12" t="s">
         <v>63</v>
@@ -4466,23 +5573,30 @@
         <v>102</v>
       </c>
       <c r="E89" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Титова;Неолина;Владиславовна}</v>
+        <f t="shared" si="10"/>
+        <v>Титова;Неолина;Владиславовна</v>
       </c>
       <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="K89" s="7" t="s">
+      <c r="G89" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="H89" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Київський національний торгово-економічний університет  </v>
+      </c>
+      <c r="L89" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="L89" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M89" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Титова;Неолина Владиславовна</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="90" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A90" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Департамент економіки та фінансування&gt;Сектор безпеки життєдіяльності{Горбачёва;Селена;Витальевна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Департамент економіки та фінансування;Сектор безпеки життєдіяльності;Горбачёва;Селена;Витальевна;2; Національний університет «Львівська політехніка» </v>
       </c>
       <c r="B90" s="12" t="s">
         <v>63</v>
@@ -4494,23 +5608,30 @@
         <v>103</v>
       </c>
       <c r="E90" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Горбачёва;Селена;Витальевна}</v>
+        <f t="shared" si="10"/>
+        <v>Горбачёва;Селена;Витальевна</v>
       </c>
       <c r="F90" s="5"/>
-      <c r="G90" s="5"/>
-      <c r="K90" s="7" t="s">
+      <c r="G90" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H90" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний університет «Львівська політехніка» </v>
+      </c>
+      <c r="L90" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="L90" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M90" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Горбачёва;Селена Витальевна</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="91" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A91" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Управління бухгалтерського обліку та звітності&gt;Відділ організації бухгалтерського обліку і звітності підвідомчих установ освіти та центрального апарату{Ковалёва;Нина;Демьяновна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Управління бухгалтерського обліку та звітності;Відділ організації бухгалтерського обліку і звітності підвідомчих установ освіти та центрального апарату;Ковалёва;Нина;Демьяновна;6; Вінницький національний технічний університет </v>
       </c>
       <c r="B91" s="12" t="s">
         <v>63</v>
@@ -4522,23 +5643,30 @@
         <v>105</v>
       </c>
       <c r="E91" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Ковалёва;Нина;Демьяновна}</v>
+        <f t="shared" si="10"/>
+        <v>Ковалёва;Нина;Демьяновна</v>
       </c>
       <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="K91" s="7" t="s">
+      <c r="G91" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="H91" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Вінницький національний технічний університет </v>
+      </c>
+      <c r="L91" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="L91" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M91" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Ковалёва;Нина Демьяновна</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="92" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A92" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Управління бухгалтерського обліку та звітності&gt;Відділ бухгалтерського обліку і звітності наукових установ{Волкова;Ветта;Якововна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Управління бухгалтерського обліку та звітності;Відділ бухгалтерського обліку і звітності наукових установ;Волкова;Ветта;Якововна;35; Київський національний торгово-економічний університет  </v>
       </c>
       <c r="B92" s="12" t="s">
         <v>63</v>
@@ -4550,23 +5678,30 @@
         <v>106</v>
       </c>
       <c r="E92" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Волкова;Ветта;Якововна}</v>
+        <f t="shared" si="10"/>
+        <v>Волкова;Ветта;Якововна</v>
       </c>
       <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="K92" s="7" t="s">
+      <c r="G92" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="H92" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Київський національний торгово-економічний університет  </v>
+      </c>
+      <c r="L92" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="L92" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M92" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Волкова;Ветта Якововна</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="93" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A93" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Відділ внутрішнього аудиту&gt;Управління зв'язків з громадськістю та забезпечення діяльності Міністра (Патронатна служба){Субботина;Александрина;Федотовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Відділ внутрішнього аудиту;Управління зв'язків з громадськістю та забезпечення діяльності Міністра (Патронатна служба);Субботина;Александрина;Федотовна;19; Національний педагогічний університет ім. М. П. Драгоманова </v>
       </c>
       <c r="B93" s="12" t="s">
         <v>63</v>
@@ -4578,23 +5713,30 @@
         <v>108</v>
       </c>
       <c r="E93" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Субботина;Александрина;Федотовна}</v>
+        <f t="shared" si="10"/>
+        <v>Субботина;Александрина;Федотовна</v>
       </c>
       <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="K93" s="7" t="s">
+      <c r="G93" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="H93" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний педагогічний університет ім. М. П. Драгоманова </v>
+      </c>
+      <c r="L93" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="L93" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M93" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Субботина;Александрина Федотовна</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="94" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A94" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Відділ внутрішнього аудиту&gt;Управління міжнародного співробітництва та європейської інтеграції{Маслова;Эдита;Кирилловна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Відділ внутрішнього аудиту;Управління міжнародного співробітництва та європейської інтеграції;Маслова;Эдита;Кирилловна;30; Національний університет «Києво-Могилянська академія» </v>
       </c>
       <c r="B94" s="12" t="s">
         <v>63</v>
@@ -4606,23 +5748,30 @@
         <v>109</v>
       </c>
       <c r="E94" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Маслова;Эдита;Кирилловна}</v>
+        <f t="shared" si="10"/>
+        <v>Маслова;Эдита;Кирилловна</v>
       </c>
       <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="K94" s="7" t="s">
+      <c r="G94" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="H94" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний університет «Києво-Могилянська академія» </v>
+      </c>
+      <c r="L94" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="L94" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M94" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Маслова;Эдита Кирилловна</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="95" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A95" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Відділ внутрішнього аудиту&gt;Сектор інформаційно-технічного забезпечення та захисту інформації{Ширяева;Гаянэ;Натановна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Відділ внутрішнього аудиту;Сектор інформаційно-технічного забезпечення та захисту інформації;Ширяева;Гаянэ;Натановна;20; Національний педагогічний університет ім. М. П. Драгоманова </v>
       </c>
       <c r="B95" s="12" t="s">
         <v>63</v>
@@ -4634,23 +5783,30 @@
         <v>110</v>
       </c>
       <c r="E95" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Ширяева;Гаянэ;Натановна}</v>
+        <f t="shared" si="10"/>
+        <v>Ширяева;Гаянэ;Натановна</v>
       </c>
       <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="K95" s="7" t="s">
+      <c r="G95" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="H95" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний педагогічний університет ім. М. П. Драгоманова </v>
+      </c>
+      <c r="L95" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="L95" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M95" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Ширяева;Гаянэ Натановна</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="96" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A96" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Відділ внутрішнього аудиту&gt;Сектор з питань безпеки життєдіяльності{Дьячкова;Валентина;Рубеновна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Відділ внутрішнього аудиту;Сектор з питань безпеки життєдіяльності;Дьячкова;Валентина;Рубеновна;20; Національний технічний університет «Київський політехнічний інститут» </v>
       </c>
       <c r="B96" s="12" t="s">
         <v>63</v>
@@ -4662,23 +5818,30 @@
         <v>111</v>
       </c>
       <c r="E96" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Дьячкова;Валентина;Рубеновна}</v>
+        <f t="shared" si="10"/>
+        <v>Дьячкова;Валентина;Рубеновна</v>
       </c>
       <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="K96" s="7" t="s">
+      <c r="G96" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="H96" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний технічний університет «Київський політехнічний інститут» </v>
+      </c>
+      <c r="L96" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="L96" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M96" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Дьячкова;Валентина Рубеновна</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="97" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A97" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Відділ внутрішнього аудиту&gt;Спецсектор{Семёнова;Регина;Аркадьевна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Відділ внутрішнього аудиту;Спецсектор;Семёнова;Регина;Аркадьевна;5; Національний аерокосмічний університет ім. М. Є. Жуковського «Харківський авіаційний інститут» </v>
       </c>
       <c r="B97" s="12" t="s">
         <v>63</v>
@@ -4690,23 +5853,30 @@
         <v>112</v>
       </c>
       <c r="E97" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Семёнова;Регина;Аркадьевна}</v>
+        <f t="shared" si="10"/>
+        <v>Семёнова;Регина;Аркадьевна</v>
       </c>
       <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="K97" s="7" t="s">
+      <c r="G97" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="H97" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний аерокосмічний університет ім. М. Є. Жуковського «Харківський авіаційний інститут» </v>
+      </c>
+      <c r="L97" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="L97" s="5" t="str">
-        <f t="shared" si="4"/>
+      <c r="M97" s="5" t="str">
+        <f t="shared" si="8"/>
         <v>Семёнова;Регина Аркадьевна</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="98" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A98" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство освіти і науки України&lt;Відділ внутрішнього аудиту&gt;Сектор з питань спеціальної перевірки{Молчанова;Эльмира;Адольфовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство освіти і науки України;Відділ внутрішнього аудиту;Сектор з питань спеціальної перевірки;Молчанова;Эльмира;Адольфовна;7; Національний технічний університет «Харківський політехнічний інститут»  </v>
       </c>
       <c r="B98" s="12" t="s">
         <v>63</v>
@@ -4718,23 +5888,30 @@
         <v>113</v>
       </c>
       <c r="E98" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Молчанова;Эльмира;Адольфовна}</v>
+        <f t="shared" si="10"/>
+        <v>Молчанова;Эльмира;Адольфовна</v>
       </c>
       <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="K98" s="7" t="s">
+      <c r="G98" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="H98" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний технічний університет «Харківський політехнічний інститут»  </v>
+      </c>
+      <c r="L98" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="L98" s="5" t="str">
-        <f t="shared" ref="L98:L129" si="7">REPLACE(K98,SEARCH(" ",K98,1),1,";")</f>
+      <c r="M98" s="5" t="str">
+        <f t="shared" ref="M98:M129" si="13">REPLACE(L98,SEARCH(" ",L98,1),1,";")</f>
         <v>Молчанова;Эльмира Адольфовна</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="99" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A99" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Медичний департамент&gt;Відділ організації медичної допомоги дитячому населенню{Бирюкова;Венера;Николаевна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Медичний департамент;Відділ організації медичної допомоги дитячому населенню;Бирюкова;Венера;Николаевна;27; Харківський національний університет радіоелектроніки </v>
       </c>
       <c r="B99" s="12" t="s">
         <v>114</v>
@@ -4746,23 +5923,30 @@
         <v>116</v>
       </c>
       <c r="E99" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Бирюкова;Венера;Николаевна}</v>
+        <f t="shared" si="10"/>
+        <v>Бирюкова;Венера;Николаевна</v>
       </c>
       <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="K99" s="7" t="s">
+      <c r="G99" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="H99" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Харківський національний університет радіоелектроніки </v>
+      </c>
+      <c r="L99" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="L99" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M99" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Бирюкова;Венера Николаевна</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="100" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A100" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Медичний департамент&gt;Відділ організації акушерсько-гінекологічної допомоги{Воробьёва;Азалия;Денисовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Медичний департамент;Відділ організації акушерсько-гінекологічної допомоги;Воробьёва;Азалия;Денисовна;28; Донецький національний університет  </v>
       </c>
       <c r="B100" s="12" t="s">
         <v>114</v>
@@ -4774,23 +5958,30 @@
         <v>117</v>
       </c>
       <c r="E100" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Воробьёва;Азалия;Денисовна}</v>
+        <f t="shared" si="10"/>
+        <v>Воробьёва;Азалия;Денисовна</v>
       </c>
       <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="K100" s="7" t="s">
+      <c r="G100" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>28</v>
+      </c>
+      <c r="H100" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Донецький національний університет  </v>
+      </c>
+      <c r="L100" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="L100" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M100" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Воробьёва;Азалия Денисовна</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="101" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A101" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Медичний департамент&gt;Відділ організації первинної медичної допомоги{Панова;Авигея;Вениаминовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Медичний департамент;Відділ організації первинної медичної допомоги;Панова;Авигея;Вениаминовна;35; Національний юридичний університет ім. Ярослава Мудрого </v>
       </c>
       <c r="B101" s="12" t="s">
         <v>114</v>
@@ -4802,23 +5993,30 @@
         <v>118</v>
       </c>
       <c r="E101" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Панова;Авигея;Вениаминовна}</v>
+        <f t="shared" si="10"/>
+        <v>Панова;Авигея;Вениаминовна</v>
       </c>
       <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="K101" s="7" t="s">
+      <c r="G101" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="H101" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний юридичний університет ім. Ярослава Мудрого </v>
+      </c>
+      <c r="L101" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="L101" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M101" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Панова;Авигея Вениаминовна</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="102" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A102" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Медичний департамент&gt;Відділ організації спеціалізованої медичної допомоги{Павлова;Амалия;Константиновна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Медичний департамент;Відділ організації спеціалізованої медичної допомоги;Павлова;Амалия;Константиновна;9; Національний педагогічний університет ім. М. П. Драгоманова </v>
       </c>
       <c r="B102" s="12" t="s">
         <v>114</v>
@@ -4830,23 +6028,30 @@
         <v>119</v>
       </c>
       <c r="E102" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Павлова;Амалия;Константиновна}</v>
+        <f t="shared" si="10"/>
+        <v>Павлова;Амалия;Константиновна</v>
       </c>
       <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="K102" s="7" t="s">
+      <c r="G102" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="H102" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний педагогічний університет ім. М. П. Драгоманова </v>
+      </c>
+      <c r="L102" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="L102" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M102" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Павлова;Амалия Константиновна</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="103" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A103" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Медичний департамент&gt;Відділ організації високоспеціалізованої медичної допомоги{Кудряшова;Диодора;Семеновна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Медичний департамент;Відділ організації високоспеціалізованої медичної допомоги;Кудряшова;Диодора;Семеновна;6; Київський національний університет технологій та дизайну </v>
       </c>
       <c r="B103" s="12" t="s">
         <v>114</v>
@@ -4858,23 +6063,30 @@
         <v>120</v>
       </c>
       <c r="E103" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Кудряшова;Диодора;Семеновна}</v>
+        <f t="shared" si="10"/>
+        <v>Кудряшова;Диодора;Семеновна</v>
       </c>
       <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="K103" s="7" t="s">
+      <c r="G103" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="H103" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Київський національний університет технологій та дизайну </v>
+      </c>
+      <c r="L103" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="L103" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M103" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Кудряшова;Диодора Семеновна</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="104" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A104" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Медичний департамент&gt;Сектор радіаційної безпеки та медичних проблем наслідків аварії на ЧАЕС{Макарова;Ветта;Петровна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Медичний департамент;Сектор радіаційної безпеки та медичних проблем наслідків аварії на ЧАЕС;Макарова;Ветта;Петровна;3; Національний університет «Києво-Могилянська академія» </v>
       </c>
       <c r="B104" s="12" t="s">
         <v>114</v>
@@ -4886,23 +6098,30 @@
         <v>121</v>
       </c>
       <c r="E104" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Макарова;Ветта;Петровна}</v>
+        <f t="shared" si="10"/>
+        <v>Макарова;Ветта;Петровна</v>
       </c>
       <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="K104" s="7" t="s">
+      <c r="G104" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="H104" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний університет «Києво-Могилянська академія» </v>
+      </c>
+      <c r="L104" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="L104" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M104" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Макарова;Ветта Петровна</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="105" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A105" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Медичний департамент&gt;Відділ медичної реабілітації, паліативної та хоспісної допомоги{Дроздова;Фрида;Куприяновна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Медичний департамент;Відділ медичної реабілітації, паліативної та хоспісної допомоги;Дроздова;Фрида;Куприяновна;12; Донецький національний технічний університет </v>
       </c>
       <c r="B105" s="12" t="s">
         <v>114</v>
@@ -4914,23 +6133,30 @@
         <v>122</v>
       </c>
       <c r="E105" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Дроздова;Фрида;Куприяновна}</v>
+        <f t="shared" si="10"/>
+        <v>Дроздова;Фрида;Куприяновна</v>
       </c>
       <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="K105" s="7" t="s">
+      <c r="G105" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="H105" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Донецький національний технічний університет </v>
+      </c>
+      <c r="L105" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="L105" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M105" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Дроздова;Фрида Куприяновна</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="106" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A106" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Медичний департамент&gt;Відділ експертизи тимчасової та стійкої втрати працездатності{Гаврилова;Архелия;Рудольфовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Медичний департамент;Відділ експертизи тимчасової та стійкої втрати працездатності;Гаврилова;Архелия;Рудольфовна;20; Харківський національний університет ім.В. Н.Каразіна </v>
       </c>
       <c r="B106" s="12" t="s">
         <v>114</v>
@@ -4942,23 +6168,30 @@
         <v>123</v>
       </c>
       <c r="E106" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Гаврилова;Архелия;Рудольфовна}</v>
+        <f t="shared" si="10"/>
+        <v>Гаврилова;Архелия;Рудольфовна</v>
       </c>
       <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="K106" s="7" t="s">
+      <c r="G106" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="H106" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Харківський національний університет ім.В. Н.Каразіна </v>
+      </c>
+      <c r="L106" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="L106" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M106" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Гаврилова;Архелия Рудольфовна</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="107" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A107" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Медичний департамент&gt;Сектор санаторно-курортного лікування{Гущина;Капитолина;Аркадьевна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Медичний департамент;Сектор санаторно-курортного лікування;Гущина;Капитолина;Аркадьевна;24; Національний авіаційний університет </v>
       </c>
       <c r="B107" s="12" t="s">
         <v>114</v>
@@ -4970,23 +6203,30 @@
         <v>124</v>
       </c>
       <c r="E107" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Гущина;Капитолина;Аркадьевна}</v>
+        <f t="shared" si="10"/>
+        <v>Гущина;Капитолина;Аркадьевна</v>
       </c>
       <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="K107" s="7" t="s">
+      <c r="G107" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="H107" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний авіаційний університет </v>
+      </c>
+      <c r="L107" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="L107" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M107" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Гущина;Капитолина Аркадьевна</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="108" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A108" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Департамент економіки і фінансової політики&gt;Відділ фінансового забезпечення і фінансової політики{Пестова;Станислава;Мартыновна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Департамент економіки і фінансової політики;Відділ фінансового забезпечення і фінансової політики;Пестова;Станислава;Мартыновна;8; Запорізький національний технічний університет </v>
       </c>
       <c r="B108" s="12" t="s">
         <v>114</v>
@@ -4998,23 +6238,30 @@
         <v>126</v>
       </c>
       <c r="E108" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Пестова;Станислава;Мартыновна}</v>
+        <f t="shared" si="10"/>
+        <v>Пестова;Станислава;Мартыновна</v>
       </c>
       <c r="F108" s="5"/>
-      <c r="G108" s="5"/>
-      <c r="K108" s="7" t="s">
+      <c r="G108" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="H108" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Запорізький національний технічний університет </v>
+      </c>
+      <c r="L108" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="L108" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M108" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Пестова;Станислава Мартыновна</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="109" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A109" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Департамент економіки і фінансової політики&gt;Відділ фінансово-економічного супроводу централізованих заходів і державних програм{Сорокина;Милана;Германновна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Департамент економіки і фінансової політики;Відділ фінансово-економічного супроводу централізованих заходів і державних програм;Сорокина;Милана;Германновна;11; Національний технічний університет «Київський політехнічний інститут» </v>
       </c>
       <c r="B109" s="12" t="s">
         <v>114</v>
@@ -5026,23 +6273,30 @@
         <v>127</v>
       </c>
       <c r="E109" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Сорокина;Милана;Германновна}</v>
+        <f t="shared" si="10"/>
+        <v>Сорокина;Милана;Германновна</v>
       </c>
       <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="K109" s="7" t="s">
+      <c r="G109" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>11</v>
+      </c>
+      <c r="H109" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний технічний університет «Київський політехнічний інститут» </v>
+      </c>
+      <c r="L109" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="L109" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M109" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Сорокина;Милана Германновна</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="110" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A110" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Департамент економіки і фінансової політики&gt;Відділ нормування, оплати праці та роботи з місцевими бюджетами{Пономарёва;Моника;Филипповна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Департамент економіки і фінансової політики;Відділ нормування, оплати праці та роботи з місцевими бюджетами;Пономарёва;Моника;Филипповна;34; Національний технічний університет «Київський політехнічний інститут» </v>
       </c>
       <c r="B110" s="12" t="s">
         <v>114</v>
@@ -5054,23 +6308,30 @@
         <v>128</v>
       </c>
       <c r="E110" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Пономарёва;Моника;Филипповна}</v>
+        <f t="shared" si="10"/>
+        <v>Пономарёва;Моника;Филипповна</v>
       </c>
       <c r="F110" s="5"/>
-      <c r="G110" s="5"/>
-      <c r="K110" s="7" t="s">
+      <c r="G110" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>34</v>
+      </c>
+      <c r="H110" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний технічний університет «Київський політехнічний інститут» </v>
+      </c>
+      <c r="L110" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="L110" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M110" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Пономарёва;Моника Филипповна</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="111" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A111" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Департамент економіки і фінансової політики&gt;Відділ організації та забезпечення державних закупівель{Блохина;Августина;Васильевна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Департамент економіки і фінансової політики;Відділ організації та забезпечення державних закупівель;Блохина;Августина;Васильевна;7; Національний технічний університет «Київський політехнічний інститут» </v>
       </c>
       <c r="B111" s="12" t="s">
         <v>114</v>
@@ -5082,23 +6343,30 @@
         <v>129</v>
       </c>
       <c r="E111" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Блохина;Августина;Васильевна}</v>
+        <f t="shared" si="10"/>
+        <v>Блохина;Августина;Васильевна</v>
       </c>
       <c r="F111" s="5"/>
-      <c r="G111" s="5"/>
-      <c r="K111" s="7" t="s">
+      <c r="G111" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="H111" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний технічний університет «Київський політехнічний інститут» </v>
+      </c>
+      <c r="L111" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="L111" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M111" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Блохина;Августина Васильевна</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="112" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A112" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Департамент економіки і фінансової політики&gt;Сектор майнових відносин та діяльності державних підприємств{Наумова;Юланта;Ростиславовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Департамент економіки і фінансової політики;Сектор майнових відносин та діяльності державних підприємств;Наумова;Юланта;Ростиславовна;19; Київський національний торгово-економічний університет  </v>
       </c>
       <c r="B112" s="12" t="s">
         <v>114</v>
@@ -5110,23 +6378,30 @@
         <v>130</v>
       </c>
       <c r="E112" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Наумова;Юланта;Ростиславовна}</v>
+        <f t="shared" si="10"/>
+        <v>Наумова;Юланта;Ростиславовна</v>
       </c>
       <c r="F112" s="5"/>
-      <c r="G112" s="5"/>
-      <c r="K112" s="7" t="s">
+      <c r="G112" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="H112" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Київський національний торгово-економічний університет  </v>
+      </c>
+      <c r="L112" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="L112" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M112" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Наумова;Юланта Ростиславовна</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="113" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A113" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Департамент управління персоналом та кадрової політики&gt;Відділ державної служби{Субботина;Романа;Созоновна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Департамент управління персоналом та кадрової політики;Відділ державної служби;Субботина;Романа;Созоновна;9; Тернопільський національний технічний університет ім. Івана Пулюя </v>
       </c>
       <c r="B113" s="12" t="s">
         <v>114</v>
@@ -5138,23 +6413,30 @@
         <v>132</v>
       </c>
       <c r="E113" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Субботина;Романа;Созоновна}</v>
+        <f t="shared" si="10"/>
+        <v>Субботина;Романа;Созоновна</v>
       </c>
       <c r="F113" s="5"/>
-      <c r="G113" s="5"/>
-      <c r="K113" s="7" t="s">
+      <c r="G113" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="H113" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Тернопільський національний технічний університет ім. Івана Пулюя </v>
+      </c>
+      <c r="L113" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="L113" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M113" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Субботина;Романа Созоновна</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="114" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A114" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Департамент управління персоналом та кадрової політики&gt;Відділ службової кар'єри державних службовців{Дроздова;Сафина;Германовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Департамент управління персоналом та кадрової політики;Відділ службової кар'єри державних службовців;Дроздова;Сафина;Германовна;2; Національний аерокосмічний університет ім. М. Є. Жуковського «Харківський авіаційний інститут» </v>
       </c>
       <c r="B114" s="12" t="s">
         <v>114</v>
@@ -5166,21 +6448,29 @@
         <v>133</v>
       </c>
       <c r="E114" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Дроздова;Сафина;Германовна}</v>
-      </c>
-      <c r="K114" s="7" t="s">
+        <f t="shared" si="10"/>
+        <v>Дроздова;Сафина;Германовна</v>
+      </c>
+      <c r="G114" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H114" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний аерокосмічний університет ім. М. Є. Жуковського «Харківський авіаційний інститут» </v>
+      </c>
+      <c r="L114" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="L114" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M114" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Дроздова;Сафина Германовна</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="115" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A115" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Департамент управління персоналом та кадрової політики&gt;Відділ медичних та фармацевтичних кадрів{Воробьёва;Амалия;Федотовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Департамент управління персоналом та кадрової політики;Відділ медичних та фармацевтичних кадрів;Воробьёва;Амалия;Федотовна;32; Запорізький національний технічний університет </v>
       </c>
       <c r="B115" s="12" t="s">
         <v>114</v>
@@ -5192,21 +6482,29 @@
         <v>134</v>
       </c>
       <c r="E115" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Воробьёва;Амалия;Федотовна}</v>
-      </c>
-      <c r="K115" s="7" t="s">
+        <f t="shared" si="10"/>
+        <v>Воробьёва;Амалия;Федотовна</v>
+      </c>
+      <c r="G115" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="H115" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Запорізький національний технічний університет </v>
+      </c>
+      <c r="L115" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="L115" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M115" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Воробьёва;Амалия Федотовна</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="116" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A116" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Департамент управління персоналом та кадрової політики&gt;Відділ управління керівними кадрами{Соколова;Лира;Анатольевна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Департамент управління персоналом та кадрової політики;Відділ управління керівними кадрами;Соколова;Лира;Анатольевна;19; Тернопільський національний технічний університет ім. Івана Пулюя </v>
       </c>
       <c r="B116" s="12" t="s">
         <v>114</v>
@@ -5218,21 +6516,29 @@
         <v>135</v>
       </c>
       <c r="E116" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Соколова;Лира;Анатольевна}</v>
-      </c>
-      <c r="K116" s="7" t="s">
+        <f t="shared" si="10"/>
+        <v>Соколова;Лира;Анатольевна</v>
+      </c>
+      <c r="G116" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="H116" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Тернопільський національний технічний університет ім. Івана Пулюя </v>
+      </c>
+      <c r="L116" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="L116" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M116" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Соколова;Лира Анатольевна</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="117" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A117" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління громадського здоров'я&gt;Відділ координації з іншими центральними органами виконавчої влади та міністерствами{Гущина;Оксана;Лаврентьевна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління громадського здоров'я;Відділ координації з іншими центральними органами виконавчої влади та міністерствами;Гущина;Оксана;Лаврентьевна;27; Дніпропетровський національний університет ім. Олеся Гончара </v>
       </c>
       <c r="B117" s="12" t="s">
         <v>114</v>
@@ -5244,21 +6550,29 @@
         <v>138</v>
       </c>
       <c r="E117" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Гущина;Оксана;Лаврентьевна}</v>
-      </c>
-      <c r="K117" s="7" t="s">
+        <f t="shared" si="10"/>
+        <v>Гущина;Оксана;Лаврентьевна</v>
+      </c>
+      <c r="G117" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>27</v>
+      </c>
+      <c r="H117" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Дніпропетровський національний університет ім. Олеся Гончара </v>
+      </c>
+      <c r="L117" s="7" t="s">
         <v>344</v>
       </c>
-      <c r="L117" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M117" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Гущина;Оксана Лаврентьевна</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="118" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A118" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління громадського здоров'я&gt;Відділ програм та проектів{Некрасова;Тамара;Вячеславовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління громадського здоров'я;Відділ програм та проектів;Некрасова;Тамара;Вячеславовна;9; Полтавський національний технічний університет ім. Юрія Кондратюка </v>
       </c>
       <c r="B118" s="12" t="s">
         <v>114</v>
@@ -5270,21 +6584,29 @@
         <v>139</v>
       </c>
       <c r="E118" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Некрасова;Тамара;Вячеславовна}</v>
-      </c>
-      <c r="K118" s="16" t="s">
+        <f t="shared" si="10"/>
+        <v>Некрасова;Тамара;Вячеславовна</v>
+      </c>
+      <c r="G118" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="H118" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Полтавський національний технічний університет ім. Юрія Кондратюка </v>
+      </c>
+      <c r="L118" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="L118" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M118" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Некрасова;Тамара Вячеславовна</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="119" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A119" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління громадського здоров'я&gt;Відділ законодавчих ініціатив{Орехова;Розалина;Олеговна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління громадського здоров'я;Відділ законодавчих ініціатив;Орехова;Розалина;Олеговна;38; Національний університет «Львівська політехніка» </v>
       </c>
       <c r="B119" s="12" t="s">
         <v>114</v>
@@ -5296,21 +6618,29 @@
         <v>140</v>
       </c>
       <c r="E119" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Орехова;Розалина;Олеговна}</v>
-      </c>
-      <c r="K119" s="16" t="s">
+        <f t="shared" si="10"/>
+        <v>Орехова;Розалина;Олеговна</v>
+      </c>
+      <c r="G119" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="H119" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний університет «Львівська політехніка» </v>
+      </c>
+      <c r="L119" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="L119" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M119" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Орехова;Розалина Олеговна</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="120" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A120" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління координації центрів реформ&gt;Відділ формування державної політики у сфері реформ{Калашникова;Иоанна;Павловна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління координації центрів реформ;Відділ формування державної політики у сфері реформ;Калашникова;Иоанна;Павловна;37; Національний транспортний університет </v>
       </c>
       <c r="B120" s="12" t="s">
         <v>114</v>
@@ -5322,21 +6652,29 @@
         <v>141</v>
       </c>
       <c r="E120" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Калашникова;Иоанна;Павловна}</v>
-      </c>
-      <c r="K120" s="16" t="s">
+        <f t="shared" si="10"/>
+        <v>Калашникова;Иоанна;Павловна</v>
+      </c>
+      <c r="G120" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="H120" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний транспортний університет </v>
+      </c>
+      <c r="L120" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="L120" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M120" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Калашникова;Иоанна Павловна</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="121" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A121" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління координації центрів реформ&gt;Відділ моніторингу, електронної систематизації та захисту інформації{Костина;Стефания;Арсеньевна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління координації центрів реформ;Відділ моніторингу, електронної систематизації та захисту інформації;Костина;Стефания;Арсеньевна;26; Львівський національний університет ім. Івана Франка </v>
       </c>
       <c r="B121" s="12" t="s">
         <v>114</v>
@@ -5348,21 +6686,29 @@
         <v>142</v>
       </c>
       <c r="E121" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Костина;Стефания;Арсеньевна}</v>
-      </c>
-      <c r="K121" s="16" t="s">
+        <f t="shared" si="10"/>
+        <v>Костина;Стефания;Арсеньевна</v>
+      </c>
+      <c r="G121" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>26</v>
+      </c>
+      <c r="H121" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Львівський національний університет ім. Івана Франка </v>
+      </c>
+      <c r="L121" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="L121" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M121" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Костина;Стефания Арсеньевна</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="122" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A122" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління правового забезпечення&gt;Відділ юридичної експертизи{Нестерова;Эдуарда;Рудольфовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління правового забезпечення;Відділ юридичної експертизи;Нестерова;Эдуарда;Рудольфовна;6; Чернівецький національний університет ім. Юрія Федьковича </v>
       </c>
       <c r="B122" s="12" t="s">
         <v>114</v>
@@ -5374,21 +6720,29 @@
         <v>144</v>
       </c>
       <c r="E122" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Нестерова;Эдуарда;Рудольфовна}</v>
-      </c>
-      <c r="K122" s="16" t="s">
+        <f t="shared" si="10"/>
+        <v>Нестерова;Эдуарда;Рудольфовна</v>
+      </c>
+      <c r="G122" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="H122" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Чернівецький національний університет ім. Юрія Федьковича </v>
+      </c>
+      <c r="L122" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="L122" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M122" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Нестерова;Эдуарда Рудольфовна</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="123" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A123" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління правового забезпечення&gt;Відділ аналітики та систематизації{Мишина;Сафина;Гордеевна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління правового забезпечення;Відділ аналітики та систематизації;Мишина;Сафина;Гордеевна;34; Національний університет «Києво-Могилянська академія» </v>
       </c>
       <c r="B123" s="12" t="s">
         <v>114</v>
@@ -5400,21 +6754,29 @@
         <v>145</v>
       </c>
       <c r="E123" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Мишина;Сафина;Гордеевна}</v>
-      </c>
-      <c r="K123" s="16" t="s">
+        <f t="shared" si="10"/>
+        <v>Мишина;Сафина;Гордеевна</v>
+      </c>
+      <c r="G123" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>34</v>
+      </c>
+      <c r="H123" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний університет «Києво-Могилянська академія» </v>
+      </c>
+      <c r="L123" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="L123" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M123" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Мишина;Сафина Гордеевна</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="124" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A124" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління правового забезпечення&gt;Відділ судово-претензійної роботи{Носкова;Олеся;Лаврентьевна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління правового забезпечення;Відділ судово-претензійної роботи;Носкова;Олеся;Лаврентьевна;4; Донецький національний університет  </v>
       </c>
       <c r="B124" s="12" t="s">
         <v>114</v>
@@ -5426,21 +6788,29 @@
         <v>146</v>
       </c>
       <c r="E124" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Носкова;Олеся;Лаврентьевна}</v>
-      </c>
-      <c r="K124" s="16" t="s">
+        <f t="shared" si="10"/>
+        <v>Носкова;Олеся;Лаврентьевна</v>
+      </c>
+      <c r="G124" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="H124" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Донецький національний університет  </v>
+      </c>
+      <c r="L124" s="16" t="s">
         <v>351</v>
       </c>
-      <c r="L124" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M124" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Носкова;Олеся Лаврентьевна</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="125" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A125" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління аудиту та аналітики&gt;Відділ внутрішнього аудиту{Лапина;Андриана;Арсеньевна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління аудиту та аналітики;Відділ внутрішнього аудиту;Лапина;Андриана;Арсеньевна;12; Чернівецький національний університет ім. Юрія Федьковича </v>
       </c>
       <c r="B125" s="12" t="s">
         <v>114</v>
@@ -5452,21 +6822,29 @@
         <v>107</v>
       </c>
       <c r="E125" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Лапина;Андриана;Арсеньевна}</v>
-      </c>
-      <c r="K125" s="16" t="s">
+        <f t="shared" si="10"/>
+        <v>Лапина;Андриана;Арсеньевна</v>
+      </c>
+      <c r="G125" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="H125" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Чернівецький національний університет ім. Юрія Федьковича </v>
+      </c>
+      <c r="L125" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="L125" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M125" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Лапина;Андриана Арсеньевна</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="126" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A126" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління аудиту та аналітики&gt;Відділ аналітики та загального контролю{Лихачёва;Альвина;Семеновна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління аудиту та аналітики;Відділ аналітики та загального контролю;Лихачёва;Альвина;Семеновна;4; Національний технічний університет «Київський політехнічний інститут» </v>
       </c>
       <c r="B126" s="12" t="s">
         <v>114</v>
@@ -5478,21 +6856,29 @@
         <v>148</v>
       </c>
       <c r="E126" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Лихачёва;Альвина;Семеновна}</v>
-      </c>
-      <c r="K126" s="16" t="s">
+        <f t="shared" si="10"/>
+        <v>Лихачёва;Альвина;Семеновна</v>
+      </c>
+      <c r="G126" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="H126" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний технічний університет «Київський політехнічний інститут» </v>
+      </c>
+      <c r="L126" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="L126" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M126" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Лихачёва;Альвина Семеновна</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="127" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A127" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління організаційного забезпечення роботи апарату&gt;Відділ електронного реєстру та роботи з документами обмеженого доступу{Лихачёва;Данута;Павловна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління організаційного забезпечення роботи апарату;Відділ електронного реєстру та роботи з документами обмеженого доступу;Лихачёва;Данута;Павловна;16; Національний університет «Львівська політехніка» </v>
       </c>
       <c r="B127" s="12" t="s">
         <v>114</v>
@@ -5504,21 +6890,29 @@
         <v>150</v>
       </c>
       <c r="E127" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Лихачёва;Данута;Павловна}</v>
-      </c>
-      <c r="K127" s="16" t="s">
+        <f t="shared" si="10"/>
+        <v>Лихачёва;Данута;Павловна</v>
+      </c>
+      <c r="G127" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>16</v>
+      </c>
+      <c r="H127" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Національний університет «Львівська політехніка» </v>
+      </c>
+      <c r="L127" s="16" t="s">
         <v>354</v>
       </c>
-      <c r="L127" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M127" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Лихачёва;Данута Павловна</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="128" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A128" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління організаційного забезпечення роботи апарату&gt;Відділ організації роботи зі зверненнями громадян та доступу до публічної інформації{Горбачёва;Сусанна;Антоновна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління організаційного забезпечення роботи апарату;Відділ організації роботи зі зверненнями громадян та доступу до публічної інформації;Горбачёва;Сусанна;Антоновна;36; Київський національний торгово-економічний університет  </v>
       </c>
       <c r="B128" s="12" t="s">
         <v>114</v>
@@ -5530,21 +6924,29 @@
         <v>151</v>
       </c>
       <c r="E128" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Горбачёва;Сусанна;Антоновна}</v>
-      </c>
-      <c r="K128" s="16" t="s">
+        <f t="shared" si="10"/>
+        <v>Горбачёва;Сусанна;Антоновна</v>
+      </c>
+      <c r="G128" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="H128" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Київський національний торгово-економічний університет  </v>
+      </c>
+      <c r="L128" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="L128" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M128" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Горбачёва;Сусанна Антоновна</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="129" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A129" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління організаційного забезпечення роботи апарату&gt;Сектор контролю апарату{Доронина;Аделия;Константиновна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління організаційного забезпечення роботи апарату;Сектор контролю апарату;Доронина;Аделия;Константиновна;33; Харківський національний університет ім.В. Н.Каразіна </v>
       </c>
       <c r="B129" s="12" t="s">
         <v>114</v>
@@ -5556,21 +6958,29 @@
         <v>152</v>
       </c>
       <c r="E129" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Доронина;Аделия;Константиновна}</v>
-      </c>
-      <c r="K129" s="16" t="s">
+        <f t="shared" si="10"/>
+        <v>Доронина;Аделия;Константиновна</v>
+      </c>
+      <c r="G129" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>33</v>
+      </c>
+      <c r="H129" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Харківський національний університет ім.В. Н.Каразіна </v>
+      </c>
+      <c r="L129" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="L129" s="5" t="str">
-        <f t="shared" si="7"/>
+      <c r="M129" s="5" t="str">
+        <f t="shared" si="13"/>
         <v>Доронина;Аделия Константиновна</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="130" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A130" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління організаційного забезпечення роботи апарату&gt;Сектор забезпечення діяльності Колегії Міністерства охорони здоров'я України{Зиновьева;Диана;Глебовна}</v>
+        <f t="shared" ca="1" si="9"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління організаційного забезпечення роботи апарату;Сектор забезпечення діяльності Колегії Міністерства охорони здоров'я України;Зиновьева;Диана;Глебовна;2; Дніпропетровський національний університет ім. Олеся Гончара </v>
       </c>
       <c r="B130" s="12" t="s">
         <v>114</v>
@@ -5582,21 +6992,29 @@
         <v>153</v>
       </c>
       <c r="E130" s="5" t="str">
-        <f t="shared" si="6"/>
-        <v>{Зиновьева;Диана;Глебовна}</v>
-      </c>
-      <c r="K130" s="16" t="s">
+        <f t="shared" si="10"/>
+        <v>Зиновьева;Диана;Глебовна</v>
+      </c>
+      <c r="G130" s="5">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="H130" s="5" t="str">
+        <f t="shared" ca="1" si="12"/>
+        <v xml:space="preserve"> Дніпропетровський національний університет ім. Олеся Гончара </v>
+      </c>
+      <c r="L130" s="16" t="s">
         <v>357</v>
       </c>
-      <c r="L130" s="5" t="str">
-        <f t="shared" ref="L130:L161" si="8">REPLACE(K130,SEARCH(" ",K130,1),1,";")</f>
+      <c r="M130" s="5" t="str">
+        <f t="shared" ref="M130:M161" si="14">REPLACE(L130,SEARCH(" ",L130,1),1,";")</f>
         <v>Зиновьева;Диана Глебовна</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="131" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A131" s="5" t="str">
-        <f t="shared" ref="A131:A194" si="9">B131&amp; "&lt;" &amp;C131  &amp;"&gt;" &amp; D131&amp; E131</f>
-        <v>Міністерство охорони здоров'я України&lt;Управління бухгалтерського обліку і фінансової звітності&gt;Відділ бухгалтерського обліку{Денисова;Лидия;Леонидовна}</v>
+        <f t="shared" ref="A131:A194" ca="1" si="15">B131 &amp; ";" &amp; C131  &amp;";" &amp; D131&amp;";"&amp; E131&amp;";"&amp;G131&amp;";"&amp;H131</f>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління бухгалтерського обліку і фінансової звітності;Відділ бухгалтерського обліку;Денисова;Лидия;Леонидовна;23; Національний університет «Острозька академія» </v>
       </c>
       <c r="B131" s="12" t="s">
         <v>114</v>
@@ -5608,21 +7026,29 @@
         <v>155</v>
       </c>
       <c r="E131" s="5" t="str">
-        <f t="shared" ref="E131:E194" si="10">"{" &amp; REPLACE(L131,SEARCH(" ",L131,1),1,";") &amp; "}"</f>
-        <v>{Денисова;Лидия;Леонидовна}</v>
-      </c>
-      <c r="K131" s="16" t="s">
+        <f t="shared" ref="E131:E194" si="16">"" &amp; REPLACE(M131,SEARCH(" ",M131,1),1,";") &amp; ""</f>
+        <v>Денисова;Лидия;Леонидовна</v>
+      </c>
+      <c r="G131" s="5">
+        <f t="shared" ref="G131:G194" ca="1" si="17">RANDBETWEEN(1,38)</f>
+        <v>23</v>
+      </c>
+      <c r="H131" s="5" t="str">
+        <f t="shared" ref="H131:H194" ca="1" si="18">VLOOKUP(RANDBETWEEN(1,34),$J$2:$K$35,2)</f>
+        <v xml:space="preserve"> Національний університет «Острозька академія» </v>
+      </c>
+      <c r="L131" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="L131" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M131" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Денисова;Лидия Леонидовна</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="132" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A132" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління бухгалтерського обліку і фінансової звітності&gt;Відділ методології бухгалтерського обліку та фінансової звітності{Кузнецова;Джульетта;Лукьевна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління бухгалтерського обліку і фінансової звітності;Відділ методології бухгалтерського обліку та фінансової звітності;Кузнецова;Джульетта;Лукьевна;13; Київський національний університет ім.Т. Г. Шевченко </v>
       </c>
       <c r="B132" s="12" t="s">
         <v>114</v>
@@ -5634,21 +7060,29 @@
         <v>156</v>
       </c>
       <c r="E132" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Кузнецова;Джульетта;Лукьевна}</v>
-      </c>
-      <c r="K132" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Кузнецова;Джульетта;Лукьевна</v>
+      </c>
+      <c r="G132" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="H132" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Київський національний університет ім.Т. Г. Шевченко </v>
+      </c>
+      <c r="L132" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="L132" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M132" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Кузнецова;Джульетта Лукьевна</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="133" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A133" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління бухгалтерського обліку і фінансової звітності&gt;Відділ методології бухгалтерського обліку та фінансової звітності{Дмитриева;Таира;Созоновна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління бухгалтерського обліку і фінансової звітності;Відділ методології бухгалтерського обліку та фінансової звітності;Дмитриева;Таира;Созоновна;13; Національний технічний університет «Київський політехнічний інститут» </v>
       </c>
       <c r="B133" s="12" t="s">
         <v>114</v>
@@ -5660,21 +7094,29 @@
         <v>156</v>
       </c>
       <c r="E133" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Дмитриева;Таира;Созоновна}</v>
-      </c>
-      <c r="K133" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Дмитриева;Таира;Созоновна</v>
+      </c>
+      <c r="G133" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="H133" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний технічний університет «Київський політехнічний інститут» </v>
+      </c>
+      <c r="L133" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="L133" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M133" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Дмитриева;Таира Созоновна</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="134" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A134" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління ліцензування та контролю якості надання медичної допомоги&gt;Відділ ліцензування, сертифікації та акредитації{Зиновьева;Аурелия;Никитевна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління ліцензування та контролю якості надання медичної допомоги;Відділ ліцензування, сертифікації та акредитації;Зиновьева;Аурелия;Никитевна;22; Національний університет «Києво-Могилянська академія» </v>
       </c>
       <c r="B134" s="12" t="s">
         <v>114</v>
@@ -5686,21 +7128,29 @@
         <v>158</v>
       </c>
       <c r="E134" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Зиновьева;Аурелия;Никитевна}</v>
-      </c>
-      <c r="K134" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Зиновьева;Аурелия;Никитевна</v>
+      </c>
+      <c r="G134" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="H134" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний університет «Києво-Могилянська академія» </v>
+      </c>
+      <c r="L134" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="L134" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M134" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Зиновьева;Аурелия Никитевна</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="135" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A135" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління ліцензування та контролю якості надання медичної допомоги&gt;Відділ контролю якості медичної допомоги{Кудрявцева;Лира;Еремеевна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління ліцензування та контролю якості надання медичної допомоги;Відділ контролю якості медичної допомоги;Кудрявцева;Лира;Еремеевна;23; Харківський національний університет радіоелектроніки </v>
       </c>
       <c r="B135" s="12" t="s">
         <v>114</v>
@@ -5712,21 +7162,29 @@
         <v>159</v>
       </c>
       <c r="E135" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Кудрявцева;Лира;Еремеевна}</v>
-      </c>
-      <c r="K135" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Кудрявцева;Лира;Еремеевна</v>
+      </c>
+      <c r="G135" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="H135" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Харківський національний університет радіоелектроніки </v>
+      </c>
+      <c r="L135" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="L135" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M135" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Кудрявцева;Лира Еремеевна</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="136" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A136" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління фармацевтичної діяльності та якості фармацевтичної продукції&gt;Відділ державної реєстрації лікарських та імунобіологічних засобів{Колесникова;Сабина;Натановна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління фармацевтичної діяльності та якості фармацевтичної продукції;Відділ державної реєстрації лікарських та імунобіологічних засобів;Колесникова;Сабина;Натановна;8; Національний технічний університет «Київський політехнічний інститут» </v>
       </c>
       <c r="B136" s="12" t="s">
         <v>114</v>
@@ -5738,21 +7196,29 @@
         <v>161</v>
       </c>
       <c r="E136" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Колесникова;Сабина;Натановна}</v>
-      </c>
-      <c r="K136" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Колесникова;Сабина;Натановна</v>
+      </c>
+      <c r="G136" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="H136" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний технічний університет «Київський політехнічний інститут» </v>
+      </c>
+      <c r="L136" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="L136" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M136" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Колесникова;Сабина Натановна</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="137" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A137" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління фармацевтичної діяльності та якості фармацевтичної продукції&gt;Відділ організації обігу лікарських та наркотичних засобів{Мамонтова;Октябрина;Викторовна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління фармацевтичної діяльності та якості фармацевтичної продукції;Відділ організації обігу лікарських та наркотичних засобів;Мамонтова;Октябрина;Викторовна;27; Університет економіки і права «Крок» </v>
       </c>
       <c r="B137" s="12" t="s">
         <v>114</v>
@@ -5765,21 +7231,29 @@
         <v>228</v>
       </c>
       <c r="E137" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Мамонтова;Октябрина;Викторовна}</v>
-      </c>
-      <c r="K137" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Мамонтова;Октябрина;Викторовна</v>
+      </c>
+      <c r="G137" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>27</v>
+      </c>
+      <c r="H137" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Університет економіки і права «Крок» </v>
+      </c>
+      <c r="L137" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="L137" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M137" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Мамонтова;Октябрина Викторовна</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="138" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A138" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління фармацевтичної діяльності та якості фармацевтичної продукції&gt;Сектор формування державної політики у сфері якості лікарських засобів{Анисимова;Дарья;Ярославовна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління фармацевтичної діяльності та якості фармацевтичної продукції;Сектор формування державної політики у сфері якості лікарських засобів;Анисимова;Дарья;Ярославовна;4; Львівський національний університет ім. Івана Франка </v>
       </c>
       <c r="B138" s="12" t="s">
         <v>114</v>
@@ -5792,21 +7266,29 @@
         <v>162</v>
       </c>
       <c r="E138" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Анисимова;Дарья;Ярославовна}</v>
-      </c>
-      <c r="K138" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Анисимова;Дарья;Ярославовна</v>
+      </c>
+      <c r="G138" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="H138" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Львівський національний університет ім. Івана Франка </v>
+      </c>
+      <c r="L138" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="L138" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M138" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Анисимова;Дарья Ярославовна</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="139" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A139" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління екстренної медичної допомоги та медицини катастроф&gt;Відділ догоспітальної та госпітальної екстренної медичної допомоги{Дементьева;Лигия;Иосифовна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління екстренної медичної допомоги та медицини катастроф;Відділ догоспітальної та госпітальної екстренної медичної допомоги;Дементьева;Лигия;Иосифовна;19; Полтавський національний технічний університет ім. Юрія Кондратюка </v>
       </c>
       <c r="B139" s="12" t="s">
         <v>114</v>
@@ -5818,21 +7300,29 @@
         <v>164</v>
       </c>
       <c r="E139" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Дементьева;Лигия;Иосифовна}</v>
-      </c>
-      <c r="K139" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Дементьева;Лигия;Иосифовна</v>
+      </c>
+      <c r="G139" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>19</v>
+      </c>
+      <c r="H139" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Полтавський національний технічний університет ім. Юрія Кондратюка </v>
+      </c>
+      <c r="L139" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="L139" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M139" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Дементьева;Лигия Иосифовна</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="140" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A140" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління екстренної медичної допомоги та медицини катастроф&gt;Відділ координації та забезпечення медичної допомоги під час антитерористичних операцій, надзвичайного і воєнного стану{Лебедева;Лидия;Валерьяновна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління екстренної медичної допомоги та медицини катастроф;Відділ координації та забезпечення медичної допомоги під час антитерористичних операцій, надзвичайного і воєнного стану;Лебедева;Лидия;Валерьяновна;15; Національний педагогічний університет ім. М. П. Драгоманова </v>
       </c>
       <c r="B140" s="12" t="s">
         <v>114</v>
@@ -5845,21 +7335,29 @@
         <v>165</v>
       </c>
       <c r="E140" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Лебедева;Лидия;Валерьяновна}</v>
-      </c>
-      <c r="K140" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Лебедева;Лидия;Валерьяновна</v>
+      </c>
+      <c r="G140" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="H140" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний педагогічний університет ім. М. П. Драгоманова </v>
+      </c>
+      <c r="L140" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="L140" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M140" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Лебедева;Лидия Валерьяновна</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="141" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A141" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління організації роботи керівництва Міністерства&gt;Відділ координації роботи керівництва Міністерства{Мясникова;Эльмира;Робертовна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління організації роботи керівництва Міністерства;Відділ координації роботи керівництва Міністерства;Мясникова;Эльмира;Робертовна;34; Харківський національний університет радіоелектроніки </v>
       </c>
       <c r="B141" s="12" t="s">
         <v>114</v>
@@ -5871,21 +7369,29 @@
         <v>167</v>
       </c>
       <c r="E141" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Мясникова;Эльмира;Робертовна}</v>
-      </c>
-      <c r="K141" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Мясникова;Эльмира;Робертовна</v>
+      </c>
+      <c r="G141" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>34</v>
+      </c>
+      <c r="H141" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Харківський національний університет радіоелектроніки </v>
+      </c>
+      <c r="L141" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="L141" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M141" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Мясникова;Эльмира Робертовна</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="142" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A142" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління організації роботи керівництва Міністерства&gt;Відділ законодавчих ініціатив{Кабанова;Диана;Глебовна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління організації роботи керівництва Міністерства;Відділ законодавчих ініціатив;Кабанова;Диана;Глебовна;17; Тернопільський національний технічний університет ім. Івана Пулюя </v>
       </c>
       <c r="B142" s="12" t="s">
         <v>114</v>
@@ -5898,21 +7404,29 @@
         <v>140</v>
       </c>
       <c r="E142" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Кабанова;Диана;Глебовна}</v>
-      </c>
-      <c r="K142" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Кабанова;Диана;Глебовна</v>
+      </c>
+      <c r="G142" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="H142" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Тернопільський національний технічний університет ім. Івана Пулюя </v>
+      </c>
+      <c r="L142" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="L142" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M142" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Кабанова;Диана Глебовна</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="143" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A143" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Управління організації роботи керівництва Міністерства&gt;Прес-служба{Некрасова;Амелия;Федотовна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Управління організації роботи керівництва Міністерства;Прес-служба;Некрасова;Амелия;Федотовна;7; Чернівецький національний університет ім. Юрія Федьковича </v>
       </c>
       <c r="B143" s="12" t="s">
         <v>114</v>
@@ -5925,21 +7439,29 @@
         <v>168</v>
       </c>
       <c r="E143" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Некрасова;Амелия;Федотовна}</v>
-      </c>
-      <c r="K143" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Некрасова;Амелия;Федотовна</v>
+      </c>
+      <c r="G143" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="H143" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Чернівецький національний університет ім. Юрія Федьковича </v>
+      </c>
+      <c r="L143" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="L143" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M143" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Некрасова;Амелия Федотовна</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="144" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A144" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Відділ з питань міжнародної діяльності та Євроінтеграції&gt;Сектор з питань Євроінтеграції{Пахомова;Эльмира;Максимовна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Відділ з питань міжнародної діяльності та Євроінтеграції;Сектор з питань Євроінтеграції;Пахомова;Эльмира;Максимовна;13; Київський національний університет ім.Т. Г. Шевченко </v>
       </c>
       <c r="B144" s="12" t="s">
         <v>114</v>
@@ -5951,21 +7473,29 @@
         <v>170</v>
       </c>
       <c r="E144" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Пахомова;Эльмира;Максимовна}</v>
-      </c>
-      <c r="K144" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Пахомова;Эльмира;Максимовна</v>
+      </c>
+      <c r="G144" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="H144" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Київський національний університет ім.Т. Г. Шевченко </v>
+      </c>
+      <c r="L144" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="L144" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M144" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Пахомова;Эльмира Максимовна</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="145" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A145" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Відділ освіти та науки&gt;{Ларионова;Диодора;Макаровна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Відділ освіти та науки;;Ларионова;Диодора;Макаровна;15; Київський національний торгово-економічний університет  </v>
       </c>
       <c r="B145" s="12" t="s">
         <v>114</v>
@@ -5974,21 +7504,29 @@
         <v>177</v>
       </c>
       <c r="E145" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Ларионова;Диодора;Макаровна}</v>
-      </c>
-      <c r="K145" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Ларионова;Диодора;Макаровна</v>
+      </c>
+      <c r="G145" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="H145" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Київський національний торгово-економічний університет  </v>
+      </c>
+      <c r="L145" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="L145" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M145" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Ларионова;Диодора Макаровна</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="146" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A146" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Відділ забезпечення взаємодії з державними органами та громадськістю і соціального діалогу&gt;{Нестерова;Феодосия;Альвиановна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Відділ забезпечення взаємодії з державними органами та громадськістю і соціального діалогу;;Нестерова;Феодосия;Альвиановна;35; Національний університет «Одеська юридична академія» </v>
       </c>
       <c r="B146" s="12" t="s">
         <v>114</v>
@@ -5997,21 +7535,29 @@
         <v>173</v>
       </c>
       <c r="E146" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Нестерова;Феодосия;Альвиановна}</v>
-      </c>
-      <c r="K146" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Нестерова;Феодосия;Альвиановна</v>
+      </c>
+      <c r="G146" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="H146" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний університет «Одеська юридична академія» </v>
+      </c>
+      <c r="L146" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="L146" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M146" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Нестерова;Феодосия Альвиановна</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="147" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A147" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Сектор мобілізаційної роботи та цивільного захисту&gt;{Русакова;Пелагея;Эльдаровна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Сектор мобілізаційної роботи та цивільного захисту;;Русакова;Пелагея;Эльдаровна;15; Національний аерокосмічний університет ім. М. Є. Жуковського «Харківський авіаційний інститут» </v>
       </c>
       <c r="B147" s="12" t="s">
         <v>114</v>
@@ -6020,21 +7566,29 @@
         <v>175</v>
       </c>
       <c r="E147" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Русакова;Пелагея;Эльдаровна}</v>
-      </c>
-      <c r="K147" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Русакова;Пелагея;Эльдаровна</v>
+      </c>
+      <c r="G147" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="H147" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний аерокосмічний університет ім. М. Є. Жуковського «Харківський авіаційний інститут» </v>
+      </c>
+      <c r="L147" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="L147" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M147" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Русакова;Пелагея Эльдаровна</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="148" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A148" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Режимно-секретний сектор&gt;{Селиверстова;Триана;Федоровна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Режимно-секретний сектор;;Селиверстова;Триана;Федоровна;18; Сумський державний університет </v>
       </c>
       <c r="B148" s="12" t="s">
         <v>114</v>
@@ -6043,21 +7597,29 @@
         <v>176</v>
       </c>
       <c r="E148" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Селиверстова;Триана;Федоровна}</v>
-      </c>
-      <c r="K148" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Селиверстова;Триана;Федоровна</v>
+      </c>
+      <c r="G148" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>18</v>
+      </c>
+      <c r="H148" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Сумський державний університет </v>
+      </c>
+      <c r="L148" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="L148" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M148" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Селиверстова;Триана Федоровна</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="149" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A149" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Сектор оцінки та усунення корупційних ризиків&gt;{Боброва;Стелла;Максовна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Сектор оцінки та усунення корупційних ризиків;;Боброва;Стелла;Максовна;8; Вінницький національний технічний університет </v>
       </c>
       <c r="B149" s="12" t="s">
         <v>114</v>
@@ -6066,21 +7628,29 @@
         <v>174</v>
       </c>
       <c r="E149" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Боброва;Стелла;Максовна}</v>
-      </c>
-      <c r="K149" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Боброва;Стелла;Максовна</v>
+      </c>
+      <c r="G149" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="H149" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Вінницький національний технічний університет </v>
+      </c>
+      <c r="L149" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="L149" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M149" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Боброва;Стелла Максовна</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="150" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A150" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Сектор охорони праці та матеріально-технічного забезпечення&gt;{Силина;Виолетта;Фроловна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Сектор охорони праці та матеріально-технічного забезпечення;;Силина;Виолетта;Фроловна;6; Донецький національний університет  </v>
       </c>
       <c r="B150" s="12" t="s">
         <v>114</v>
@@ -6089,21 +7659,29 @@
         <v>172</v>
       </c>
       <c r="E150" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Силина;Виолетта;Фроловна}</v>
-      </c>
-      <c r="K150" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Силина;Виолетта;Фроловна</v>
+      </c>
+      <c r="G150" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>6</v>
+      </c>
+      <c r="H150" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Донецький національний університет  </v>
+      </c>
+      <c r="L150" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="L150" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M150" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Силина;Виолетта Фроловна</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="151" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A151" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство охорони здоров'я України&lt;Патронатна служба Міністра (самостійний сектор)&gt;{Горбачёва;Диана;Артёмовна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство охорони здоров'я України;Патронатна служба Міністра (самостійний сектор);;Горбачёва;Диана;Артёмовна;34; Тернопільський національний технічний університет ім. Івана Пулюя </v>
       </c>
       <c r="B151" s="12" t="s">
         <v>114</v>
@@ -6112,21 +7690,29 @@
         <v>171</v>
       </c>
       <c r="E151" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Горбачёва;Диана;Артёмовна}</v>
-      </c>
-      <c r="K151" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Горбачёва;Диана;Артёмовна</v>
+      </c>
+      <c r="G151" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>34</v>
+      </c>
+      <c r="H151" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Тернопільський національний технічний університет ім. Івана Пулюя </v>
+      </c>
+      <c r="L151" s="16" t="s">
         <v>378</v>
       </c>
-      <c r="L151" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M151" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Горбачёва;Диана Артёмовна</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="25.2" customHeight="1" thickBot="1">
+    <row r="152" spans="1:13" ht="25.2" customHeight="1" thickBot="1">
       <c r="A152" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Департамент преси та зв'язків із засобами масової інформації&gt;{Гущина;Ольга;Филатовна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Департамент преси та зв'язків із засобами масової інформації;;Гущина;Ольга;Филатовна;35; Дніпропетровський національний університет ім. Олеся Гончара </v>
       </c>
       <c r="B152" s="12" t="s">
         <v>178</v>
@@ -6135,21 +7721,29 @@
         <v>179</v>
       </c>
       <c r="E152" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Гущина;Ольга;Филатовна}</v>
-      </c>
-      <c r="K152" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Гущина;Ольга;Филатовна</v>
+      </c>
+      <c r="G152" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="H152" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Дніпропетровський національний університет ім. Олеся Гончара </v>
+      </c>
+      <c r="L152" s="16" t="s">
         <v>379</v>
       </c>
-      <c r="L152" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M152" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Гущина;Ольга Филатовна</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="153" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A153" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Контрольно-ревізійний департамент&gt;{Маслова;Милда;Эльдаровна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Контрольно-ревізійний департамент;;Маслова;Милда;Эльдаровна;23; Тернопільський національний технічний університет ім. Івана Пулюя </v>
       </c>
       <c r="B153" s="12" t="s">
         <v>178</v>
@@ -6158,21 +7752,29 @@
         <v>180</v>
       </c>
       <c r="E153" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Маслова;Милда;Эльдаровна}</v>
-      </c>
-      <c r="K153" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Маслова;Милда;Эльдаровна</v>
+      </c>
+      <c r="G153" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="H153" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Тернопільський національний технічний університет ім. Івана Пулюя </v>
+      </c>
+      <c r="L153" s="16" t="s">
         <v>380</v>
       </c>
-      <c r="L153" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M153" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Маслова;Милда Эльдаровна</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="154" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A154" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Департамент фінансів&gt;{Медведева;Алия;Улебовна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Департамент фінансів;;Медведева;Алия;Улебовна;13; Харківський національний університет радіоелектроніки </v>
       </c>
       <c r="B154" s="12" t="s">
         <v>178</v>
@@ -6181,21 +7783,29 @@
         <v>181</v>
       </c>
       <c r="E154" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Медведева;Алия;Улебовна}</v>
-      </c>
-      <c r="K154" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Медведева;Алия;Улебовна</v>
+      </c>
+      <c r="G154" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>13</v>
+      </c>
+      <c r="H154" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Харківський національний університет радіоелектроніки </v>
+      </c>
+      <c r="L154" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="L154" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M154" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Медведева;Алия Улебовна</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="155" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A155" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Департамент правового забезпечення&gt;{Сафонова;Альбина;Ильяовна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Департамент правового забезпечення;;Сафонова;Альбина;Ильяовна;4; Київський національний університет ім.Т. Г. Шевченко </v>
       </c>
       <c r="B155" s="12" t="s">
         <v>178</v>
@@ -6204,21 +7814,29 @@
         <v>182</v>
       </c>
       <c r="E155" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Сафонова;Альбина;Ильяовна}</v>
-      </c>
-      <c r="K155" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Сафонова;Альбина;Ильяовна</v>
+      </c>
+      <c r="G155" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="H155" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Київський національний університет ім.Т. Г. Шевченко </v>
+      </c>
+      <c r="L155" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="L155" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M155" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Сафонова;Альбина Ильяовна</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="156" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A156" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Департамент воєнної політики та стратегічного планування&gt;{Стрелкова;Пелагея;Арсеньевна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Департамент воєнної політики та стратегічного планування;;Стрелкова;Пелагея;Арсеньевна;15; Національний транспортний університет </v>
       </c>
       <c r="B156" s="12" t="s">
         <v>178</v>
@@ -6227,21 +7845,29 @@
         <v>183</v>
       </c>
       <c r="E156" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Стрелкова;Пелагея;Арсеньевна}</v>
-      </c>
-      <c r="K156" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Стрелкова;Пелагея;Арсеньевна</v>
+      </c>
+      <c r="G156" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="H156" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний транспортний університет </v>
+      </c>
+      <c r="L156" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="L156" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M156" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Стрелкова;Пелагея Арсеньевна</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="157" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A157" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Департамент військової освіти та науки&gt;{Хохлова;Полианна;Якуновна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Департамент військової освіти та науки;;Хохлова;Полианна;Якуновна;20; Харківський національний університет ім.В. Н.Каразіна </v>
       </c>
       <c r="B157" s="12" t="s">
         <v>178</v>
@@ -6250,21 +7876,29 @@
         <v>184</v>
       </c>
       <c r="E157" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Хохлова;Полианна;Якуновна}</v>
-      </c>
-      <c r="K157" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Хохлова;Полианна;Якуновна</v>
+      </c>
+      <c r="G157" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="H157" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Харківський національний університет ім.В. Н.Каразіна </v>
+      </c>
+      <c r="L157" s="16" t="s">
         <v>384</v>
       </c>
-      <c r="L157" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M157" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Хохлова;Полианна Якуновна</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="158" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A158" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Департамент міжнародного оборонного співробітництва&gt;{Орехова;Веста;Авксентьевна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Департамент міжнародного оборонного співробітництва;;Орехова;Веста;Авксентьевна;36; Національний педагогічний університет ім. М. П. Драгоманова </v>
       </c>
       <c r="B158" s="12" t="s">
         <v>178</v>
@@ -6273,21 +7907,29 @@
         <v>185</v>
       </c>
       <c r="E158" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Орехова;Веста;Авксентьевна}</v>
-      </c>
-      <c r="K158" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Орехова;Веста;Авксентьевна</v>
+      </c>
+      <c r="G158" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>36</v>
+      </c>
+      <c r="H158" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний педагогічний університет ім. М. П. Драгоманова </v>
+      </c>
+      <c r="L158" s="16" t="s">
         <v>385</v>
       </c>
-      <c r="L158" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M158" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Орехова;Веста Авксентьевна</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="159" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A159" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Департамент соціальної та гуманітарної політики&gt;{Егорова;Наталия;Владленовна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Департамент соціальної та гуманітарної політики;;Егорова;Наталия;Владленовна;7; Одеський національний політехнічний університет </v>
       </c>
       <c r="B159" s="12" t="s">
         <v>178</v>
@@ -6296,21 +7938,29 @@
         <v>186</v>
       </c>
       <c r="E159" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Егорова;Наталия;Владленовна}</v>
-      </c>
-      <c r="K159" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Егорова;Наталия;Владленовна</v>
+      </c>
+      <c r="G159" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="H159" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Одеський національний політехнічний університет </v>
+      </c>
+      <c r="L159" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="L159" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M159" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Егорова;Наталия Владленовна</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="160" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A160" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Департамент капітального будівництва&gt;{Соболева;Софья;Константиновна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Департамент капітального будівництва;;Соболева;Софья;Константиновна;31; Донецький національний технічний університет </v>
       </c>
       <c r="B160" s="12" t="s">
         <v>178</v>
@@ -6319,21 +7969,29 @@
         <v>187</v>
       </c>
       <c r="E160" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Соболева;Софья;Константиновна}</v>
-      </c>
-      <c r="K160" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Соболева;Софья;Константиновна</v>
+      </c>
+      <c r="G160" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>31</v>
+      </c>
+      <c r="H160" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Донецький національний технічний університет </v>
+      </c>
+      <c r="L160" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="L160" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M160" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Соболева;Софья Константиновна</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="161" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A161" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Департамент економічної та господарської діяльності&gt;{Третьякова;Келен;Созоновна}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Департамент економічної та господарської діяльності;;Третьякова;Келен;Созоновна;16; Національний педагогічний університет ім. М. П. Драгоманова </v>
       </c>
       <c r="B161" s="12" t="s">
         <v>178</v>
@@ -6342,21 +8000,29 @@
         <v>188</v>
       </c>
       <c r="E161" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Третьякова;Келен;Созоновна}</v>
-      </c>
-      <c r="K161" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Третьякова;Келен;Созоновна</v>
+      </c>
+      <c r="G161" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="H161" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний педагогічний університет ім. М. П. Драгоманова </v>
+      </c>
+      <c r="L161" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="L161" s="5" t="str">
-        <f t="shared" si="8"/>
+      <c r="M161" s="5" t="str">
+        <f t="shared" si="14"/>
         <v>Третьякова;Келен Созоновна</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="162" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A162" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Департамент державних закупівель&gt;{Бирюков;Владимир;Ростиславович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Департамент державних закупівель;;Бирюков;Владимир;Ростиславович;16; Національний технічний університет «Харківський політехнічний інститут»  </v>
       </c>
       <c r="B162" s="12" t="s">
         <v>178</v>
@@ -6365,21 +8031,29 @@
         <v>189</v>
       </c>
       <c r="E162" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Бирюков;Владимир;Ростиславович}</v>
-      </c>
-      <c r="K162" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Бирюков;Владимир;Ростиславович</v>
+      </c>
+      <c r="G162" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>16</v>
+      </c>
+      <c r="H162" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний технічний університет «Харківський політехнічний інститут»  </v>
+      </c>
+      <c r="L162" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="L162" s="5" t="str">
-        <f t="shared" ref="L162:L193" si="11">REPLACE(K162,SEARCH(" ",K162,1),1,";")</f>
+      <c r="M162" s="5" t="str">
+        <f t="shared" ref="M162:M193" si="19">REPLACE(L162,SEARCH(" ",L162,1),1,";")</f>
         <v>Бирюков;Владимир Ростиславович</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="163" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A163" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Військово-медичний департамент&gt;{Корнилов;Адриан;Артёмович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Військово-медичний департамент;;Корнилов;Адриан;Артёмович;28; Національний університет «Києво-Могилянська академія» </v>
       </c>
       <c r="B163" s="12" t="s">
         <v>178</v>
@@ -6388,21 +8062,29 @@
         <v>190</v>
       </c>
       <c r="E163" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Корнилов;Адриан;Артёмович}</v>
-      </c>
-      <c r="K163" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Корнилов;Адриан;Артёмович</v>
+      </c>
+      <c r="G163" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>28</v>
+      </c>
+      <c r="H163" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний університет «Києво-Могилянська академія» </v>
+      </c>
+      <c r="L163" s="16" t="s">
         <v>390</v>
       </c>
-      <c r="L163" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M163" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Корнилов;Адриан Артёмович</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="164" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A164" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Департамент розробок і закупівлі озброєння та військової техніки&gt;{Терентьев;Матвей;Рудольфович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Департамент розробок і закупівлі озброєння та військової техніки;;Терентьев;Матвей;Рудольфович;20; Вінницький національний технічний університет </v>
       </c>
       <c r="B164" s="12" t="s">
         <v>178</v>
@@ -6411,21 +8093,29 @@
         <v>191</v>
       </c>
       <c r="E164" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Терентьев;Матвей;Рудольфович}</v>
-      </c>
-      <c r="K164" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Терентьев;Матвей;Рудольфович</v>
+      </c>
+      <c r="G164" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>20</v>
+      </c>
+      <c r="H164" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Вінницький національний технічний університет </v>
+      </c>
+      <c r="L164" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="L164" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M164" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Терентьев;Матвей Рудольфович</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="165" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A165" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Департамент утилізації компонентів ракетного палива та ракет і боєприпасів&gt;{Шестаков;Тихон;Тарасович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Департамент утилізації компонентів ракетного палива та ракет і боєприпасів;;Шестаков;Тихон;Тарасович;22; Одеський національний політехнічний університет </v>
       </c>
       <c r="B165" s="12" t="s">
         <v>178</v>
@@ -6434,21 +8124,29 @@
         <v>192</v>
       </c>
       <c r="E165" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Шестаков;Тихон;Тарасович}</v>
-      </c>
-      <c r="K165" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Шестаков;Тихон;Тарасович</v>
+      </c>
+      <c r="G165" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="H165" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Одеський національний політехнічний університет </v>
+      </c>
+      <c r="L165" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="L165" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M165" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Шестаков;Тихон Тарасович</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="166" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A166" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Департамент кадрової політики&gt;{Комаров;Лукьян;Тимурович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Департамент кадрової політики;;Комаров;Лукьян;Тимурович;8; Київський національний економічний університет ім. Вадима Гетьмана  </v>
       </c>
       <c r="B166" s="12" t="s">
         <v>178</v>
@@ -6457,21 +8155,29 @@
         <v>193</v>
       </c>
       <c r="E166" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Комаров;Лукьян;Тимурович}</v>
-      </c>
-      <c r="K166" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Комаров;Лукьян;Тимурович</v>
+      </c>
+      <c r="G166" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="H166" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Київський національний економічний університет ім. Вадима Гетьмана  </v>
+      </c>
+      <c r="L166" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="L166" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M166" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Комаров;Лукьян Тимурович</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="167" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A167" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство оборони України&lt;Адміністративний департамент&gt;{Кудряшов;Юрий;Мартынович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство оборони України;Адміністративний департамент;;Кудряшов;Юрий;Мартынович;23; Сумський державний університет </v>
       </c>
       <c r="B167" s="12" t="s">
         <v>178</v>
@@ -6480,21 +8186,29 @@
         <v>194</v>
       </c>
       <c r="E167" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Кудряшов;Юрий;Мартынович}</v>
-      </c>
-      <c r="K167" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Кудряшов;Юрий;Мартынович</v>
+      </c>
+      <c r="G167" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="H167" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Сумський державний університет </v>
+      </c>
+      <c r="L167" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="L167" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M167" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Кудряшов;Юрий Мартынович</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="168" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A168" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Патронатна служба Міністра&gt;{Прохоров;Клим;Георгьевич}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Патронатна служба Міністра;;Прохоров;Клим;Георгьевич;8; Університет економіки і права «Крок» </v>
       </c>
       <c r="B168" s="12" t="s">
         <v>195</v>
@@ -6503,21 +8217,29 @@
         <v>196</v>
       </c>
       <c r="E168" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Прохоров;Клим;Георгьевич}</v>
-      </c>
-      <c r="K168" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Прохоров;Клим;Георгьевич</v>
+      </c>
+      <c r="G168" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>8</v>
+      </c>
+      <c r="H168" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Університет економіки і права «Крок» </v>
+      </c>
+      <c r="L168" s="16" t="s">
         <v>395</v>
       </c>
-      <c r="L168" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M168" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Прохоров;Клим Георгьевич</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="169" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A169" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Секретаріат Державного секретаря Міністерства&gt;{Орехов;Арнольд;Филатович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Секретаріат Державного секретаря Міністерства;;Орехов;Арнольд;Филатович;11; Національний університет харчових технологій </v>
       </c>
       <c r="B169" s="12" t="s">
         <v>195</v>
@@ -6526,21 +8248,29 @@
         <v>197</v>
       </c>
       <c r="E169" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Орехов;Арнольд;Филатович}</v>
-      </c>
-      <c r="K169" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Орехов;Арнольд;Филатович</v>
+      </c>
+      <c r="G169" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="H169" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний університет харчових технологій </v>
+      </c>
+      <c r="L169" s="16" t="s">
         <v>396</v>
       </c>
-      <c r="L169" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M169" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Орехов;Арнольд Филатович</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="170" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A170" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Управління зовнішніх зв’язків&gt;{Морозов;Вениамин;Матвеевич}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Управління зовнішніх зв’язків;;Морозов;Вениамин;Матвеевич;10; Київський національний університет технологій та дизайну </v>
       </c>
       <c r="B170" s="12" t="s">
         <v>195</v>
@@ -6549,21 +8279,29 @@
         <v>198</v>
       </c>
       <c r="E170" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Морозов;Вениамин;Матвеевич}</v>
-      </c>
-      <c r="K170" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Морозов;Вениамин;Матвеевич</v>
+      </c>
+      <c r="G170" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="H170" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Київський національний університет технологій та дизайну </v>
+      </c>
+      <c r="L170" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="L170" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M170" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Морозов;Вениамин Матвеевич</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="171" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A171" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Управління взаємодії з органами державної влади&gt;{Казаков;Илларион;Германович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Управління взаємодії з органами державної влади;;Казаков;Илларион;Германович;22; Київський національний університет будівництва і архітектури </v>
       </c>
       <c r="B171" s="12" t="s">
         <v>195</v>
@@ -6572,21 +8310,29 @@
         <v>199</v>
       </c>
       <c r="E171" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Казаков;Илларион;Германович}</v>
-      </c>
-      <c r="K171" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Казаков;Илларион;Германович</v>
+      </c>
+      <c r="G171" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="H171" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Київський національний університет будівництва і архітектури </v>
+      </c>
+      <c r="L171" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="L171" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M171" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Казаков;Илларион Германович</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="172" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A172" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Управління інформування населення та реформування правової освіти&gt;{Быков;Богдан;Яковович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Управління інформування населення та реформування правової освіти;;Быков;Богдан;Яковович;10; Національний університет харчових технологій </v>
       </c>
       <c r="B172" s="12" t="s">
         <v>195</v>
@@ -6595,21 +8341,29 @@
         <v>200</v>
       </c>
       <c r="E172" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Быков;Богдан;Яковович}</v>
-      </c>
-      <c r="K172" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Быков;Богдан;Яковович</v>
+      </c>
+      <c r="G172" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="H172" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний університет харчових технологій </v>
+      </c>
+      <c r="L172" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="L172" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M172" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Быков;Богдан Яковович</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="173" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A173" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент публічного права&gt;{Горшков;Мартын;Феликсович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент публічного права;;Горшков;Мартын;Феликсович;38; Тернопільський національний технічний університет ім. Івана Пулюя </v>
       </c>
       <c r="B173" s="12" t="s">
         <v>195</v>
@@ -6618,21 +8372,29 @@
         <v>201</v>
       </c>
       <c r="E173" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Горшков;Мартын;Феликсович}</v>
-      </c>
-      <c r="K173" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Горшков;Мартын;Феликсович</v>
+      </c>
+      <c r="G173" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>38</v>
+      </c>
+      <c r="H173" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Тернопільський національний технічний університет ім. Івана Пулюя </v>
+      </c>
+      <c r="L173" s="16" t="s">
         <v>400</v>
       </c>
-      <c r="L173" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M173" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Горшков;Мартын Феликсович</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="174" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A174" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент приватного права&gt;{Миронов;Вячеслав;Евгеньевич}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент приватного права;;Миронов;Вячеслав;Евгеньевич;22; Дніпропетровський національний університет ім. Олеся Гончара </v>
       </c>
       <c r="B174" s="12" t="s">
         <v>195</v>
@@ -6641,21 +8403,29 @@
         <v>202</v>
       </c>
       <c r="E174" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Миронов;Вячеслав;Евгеньевич}</v>
-      </c>
-      <c r="K174" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Миронов;Вячеслав;Евгеньевич</v>
+      </c>
+      <c r="G174" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="H174" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Дніпропетровський національний університет ім. Олеся Гончара </v>
+      </c>
+      <c r="L174" s="16" t="s">
         <v>401</v>
       </c>
-      <c r="L174" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M174" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Миронов;Вячеслав Евгеньевич</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="175" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A175" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент з питань судової роботи та банкрутства&gt;{Овчинников;Парамон;Давидович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент з питань судової роботи та банкрутства;;Овчинников;Парамон;Давидович;3; Національний транспортний університет </v>
       </c>
       <c r="B175" s="12" t="s">
         <v>195</v>
@@ -6664,21 +8434,29 @@
         <v>203</v>
       </c>
       <c r="E175" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Овчинников;Парамон;Давидович}</v>
-      </c>
-      <c r="K175" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Овчинников;Парамон;Давидович</v>
+      </c>
+      <c r="G175" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>3</v>
+      </c>
+      <c r="H175" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний транспортний університет </v>
+      </c>
+      <c r="L175" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="L175" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M175" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Овчинников;Парамон Давидович</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="176" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A176" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент реєстрації та систематизації правових актів&gt;{Ситников;Аввакуум;Максович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент реєстрації та систематизації правових актів;;Ситников;Аввакуум;Максович;1; Одеський національний університет ім. І. І. Мечникова  </v>
       </c>
       <c r="B176" s="12" t="s">
         <v>195</v>
@@ -6687,21 +8465,29 @@
         <v>204</v>
       </c>
       <c r="E176" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Ситников;Аввакуум;Максович}</v>
-      </c>
-      <c r="K176" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Ситников;Аввакуум;Максович</v>
+      </c>
+      <c r="G176" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H176" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Одеський національний університет ім. І. І. Мечникова  </v>
+      </c>
+      <c r="L176" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="L176" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M176" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Ситников;Аввакуум Максович</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="177" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A177" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент з питань правосуддя та національної безпеки&gt;{Мухин;Альфред;Владимирович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент з питань правосуддя та національної безпеки;;Мухин;Альфред;Владимирович;10; Національний транспортний університет </v>
       </c>
       <c r="B177" s="12" t="s">
         <v>195</v>
@@ -6710,21 +8496,29 @@
         <v>205</v>
       </c>
       <c r="E177" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Мухин;Альфред;Владимирович}</v>
-      </c>
-      <c r="K177" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Мухин;Альфред;Владимирович</v>
+      </c>
+      <c r="G177" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="H177" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний транспортний університет </v>
+      </c>
+      <c r="L177" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="L177" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M177" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Мухин;Альфред Владимирович</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="178" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A178" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент міжнародного права&gt;{Носов;Борис;Георгьевич}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент міжнародного права;;Носов;Борис;Георгьевич;17; Тернопільський національний технічний університет ім. Івана Пулюя </v>
       </c>
       <c r="B178" s="12" t="s">
         <v>195</v>
@@ -6733,21 +8527,29 @@
         <v>206</v>
       </c>
       <c r="E178" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Носов;Борис;Георгьевич}</v>
-      </c>
-      <c r="K178" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Носов;Борис;Георгьевич</v>
+      </c>
+      <c r="G178" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>17</v>
+      </c>
+      <c r="H178" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Тернопільський національний технічний університет ім. Івана Пулюя </v>
+      </c>
+      <c r="L178" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="L178" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M178" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Носов;Борис Георгьевич</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="179" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A179" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Секретаріат Урядового уповноваженого у справах Європейського суду з прав людини&gt;{Филатов;Яков;Сергеевич}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Секретаріат Урядового уповноваженого у справах Європейського суду з прав людини;;Филатов;Яков;Сергеевич;23; Вінницький національний технічний університет </v>
       </c>
       <c r="B179" s="12" t="s">
         <v>195</v>
@@ -6756,21 +8558,29 @@
         <v>207</v>
       </c>
       <c r="E179" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Филатов;Яков;Сергеевич}</v>
-      </c>
-      <c r="K179" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Филатов;Яков;Сергеевич</v>
+      </c>
+      <c r="G179" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>23</v>
+      </c>
+      <c r="H179" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Вінницький національний технічний університет </v>
+      </c>
+      <c r="L179" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="L179" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M179" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Филатов;Яков Сергеевич</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="180" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A180" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент з питань люстрації&gt;{Меркушев;Моисей;Артёмович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент з питань люстрації;;Меркушев;Моисей;Артёмович;4; Київський національний університет технологій та дизайну </v>
       </c>
       <c r="B180" s="12" t="s">
         <v>195</v>
@@ -6779,21 +8589,29 @@
         <v>208</v>
       </c>
       <c r="E180" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Меркушев;Моисей;Артёмович}</v>
-      </c>
-      <c r="K180" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Меркушев;Моисей;Артёмович</v>
+      </c>
+      <c r="G180" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>4</v>
+      </c>
+      <c r="H180" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Київський національний університет технологій та дизайну </v>
+      </c>
+      <c r="L180" s="16" t="s">
         <v>407</v>
       </c>
-      <c r="L180" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M180" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Меркушев;Моисей Артёмович</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="181" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A181" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент персоналу&gt;{Ефимов;Макар;Тимофеевич}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент персоналу;;Ефимов;Макар;Тимофеевич;10; Одеський національний університет ім. І. І. Мечникова  </v>
       </c>
       <c r="B181" s="12" t="s">
         <v>195</v>
@@ -6802,21 +8620,29 @@
         <v>209</v>
       </c>
       <c r="E181" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Ефимов;Макар;Тимофеевич}</v>
-      </c>
-      <c r="K181" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Ефимов;Макар;Тимофеевич</v>
+      </c>
+      <c r="G181" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="H181" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Одеський національний університет ім. І. І. Мечникова  </v>
+      </c>
+      <c r="L181" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="L181" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M181" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Ефимов;Макар Тимофеевич</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="182" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A182" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Управління внутрішнього контролю органів і установ системи юстиції&gt;{Чернов;Мартин;Мэлорович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Управління внутрішнього контролю органів і установ системи юстиції;;Чернов;Мартин;Мэлорович;36; Донецький національний технічний університет </v>
       </c>
       <c r="B182" s="12" t="s">
         <v>195</v>
@@ -6825,21 +8651,29 @@
         <v>210</v>
       </c>
       <c r="E182" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Чернов;Мартин;Мэлорович}</v>
-      </c>
-      <c r="K182" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Чернов;Мартин;Мэлорович</v>
+      </c>
+      <c r="G182" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>36</v>
+      </c>
+      <c r="H182" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Донецький національний технічний університет </v>
+      </c>
+      <c r="L182" s="16" t="s">
         <v>409</v>
       </c>
-      <c r="L182" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M182" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Чернов;Мартин Мэлорович</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="183" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A183" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент комунікації, документообігу та контролю&gt;{Филатов;Наум;Русланович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент комунікації, документообігу та контролю;;Филатов;Наум;Русланович;7; Національний юридичний університет ім. Ярослава Мудрого </v>
       </c>
       <c r="B183" s="12" t="s">
         <v>195</v>
@@ -6848,21 +8682,29 @@
         <v>211</v>
       </c>
       <c r="E183" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Филатов;Наум;Русланович}</v>
-      </c>
-      <c r="K183" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Филатов;Наум;Русланович</v>
+      </c>
+      <c r="G183" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>7</v>
+      </c>
+      <c r="H183" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний юридичний університет ім. Ярослава Мудрого </v>
+      </c>
+      <c r="L183" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="L183" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M183" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Филатов;Наум Русланович</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="184" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A184" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент фінансового забезпечення та бухгалтерського обліку&gt;{Молчанов;Александр;Михаилович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент фінансового забезпечення та бухгалтерського обліку;;Молчанов;Александр;Михаилович;22; Сумський державний університет </v>
       </c>
       <c r="B184" s="12" t="s">
         <v>195</v>
@@ -6871,21 +8713,29 @@
         <v>212</v>
       </c>
       <c r="E184" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Молчанов;Александр;Михаилович}</v>
-      </c>
-      <c r="K184" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Молчанов;Александр;Михаилович</v>
+      </c>
+      <c r="G184" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>22</v>
+      </c>
+      <c r="H184" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Сумський державний університет </v>
+      </c>
+      <c r="L184" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="L184" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M184" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Молчанов;Александр Михаилович</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="185" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A185" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент державної реєстрації та нотаріату&gt;{Гордеев;Клим;Егорович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент державної реєстрації та нотаріату;;Гордеев;Клим;Егорович;38; Донецький національний університет  </v>
       </c>
       <c r="B185" s="12" t="s">
         <v>195</v>
@@ -6894,21 +8744,29 @@
         <v>213</v>
       </c>
       <c r="E185" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Гордеев;Клим;Егорович}</v>
-      </c>
-      <c r="K185" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Гордеев;Клим;Егорович</v>
+      </c>
+      <c r="G185" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>38</v>
+      </c>
+      <c r="H185" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Донецький національний університет  </v>
+      </c>
+      <c r="L185" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="L185" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M185" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Гордеев;Клим Егорович</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="186" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A186" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Відділ режимно-секретної роботи&gt;{Ильин;Кондрат;Романович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Відділ режимно-секретної роботи;;Ильин;Кондрат;Романович;15; Київський національний університет технологій та дизайну </v>
       </c>
       <c r="B186" s="12" t="s">
         <v>195</v>
@@ -6917,21 +8775,29 @@
         <v>214</v>
       </c>
       <c r="E186" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Ильин;Кондрат;Романович}</v>
-      </c>
-      <c r="K186" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Ильин;Кондрат;Романович</v>
+      </c>
+      <c r="G186" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="H186" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Київський національний університет технологій та дизайну </v>
+      </c>
+      <c r="L186" s="16" t="s">
         <v>413</v>
       </c>
-      <c r="L186" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M186" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Ильин;Кондрат Романович</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="187" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A187" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент державної виконавчої служби&gt;{Белозёров;Вадим;Романович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент державної виконавчої служби;;Белозёров;Вадим;Романович;30; Університет економіки і права «Крок» </v>
       </c>
       <c r="B187" s="12" t="s">
         <v>195</v>
@@ -6940,21 +8806,29 @@
         <v>215</v>
       </c>
       <c r="E187" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Белозёров;Вадим;Романович}</v>
-      </c>
-      <c r="K187" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Белозёров;Вадим;Романович</v>
+      </c>
+      <c r="G187" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>30</v>
+      </c>
+      <c r="H187" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Університет економіки і права «Крок» </v>
+      </c>
+      <c r="L187" s="16" t="s">
         <v>414</v>
       </c>
-      <c r="L187" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M187" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Белозёров;Вадим Романович</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="188" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A188" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Адміністративно-господарський департамент&gt;{Лыткин;Тарас;Романович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Адміністративно-господарський департамент;;Лыткин;Тарас;Романович;11; Національний юридичний університет ім. Ярослава Мудрого </v>
       </c>
       <c r="B188" s="12" t="s">
         <v>195</v>
@@ -6963,21 +8837,29 @@
         <v>216</v>
       </c>
       <c r="E188" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Лыткин;Тарас;Романович}</v>
-      </c>
-      <c r="K188" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Лыткин;Тарас;Романович</v>
+      </c>
+      <c r="G188" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>11</v>
+      </c>
+      <c r="H188" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Національний юридичний університет ім. Ярослава Мудрого </v>
+      </c>
+      <c r="L188" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="L188" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M188" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Лыткин;Тарас Романович</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="189" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A189" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Відділ державних закупівель, договірної роботи та взаємовідносин з державними підприємствами&gt;{Дорофеев;Фрол;Степанович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Відділ державних закупівель, договірної роботи та взаємовідносин з державними підприємствами;;Дорофеев;Фрол;Степанович;37; Харківський національний університет радіоелектроніки </v>
       </c>
       <c r="B189" s="12" t="s">
         <v>195</v>
@@ -6986,21 +8868,29 @@
         <v>217</v>
       </c>
       <c r="E189" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Дорофеев;Фрол;Степанович}</v>
-      </c>
-      <c r="K189" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Дорофеев;Фрол;Степанович</v>
+      </c>
+      <c r="G189" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>37</v>
+      </c>
+      <c r="H189" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Харківський національний університет радіоелектроніки </v>
+      </c>
+      <c r="L189" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="L189" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M189" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Дорофеев;Фрол Степанович</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="190" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A190" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент пробації&gt;{Гришин;Виктор;Германнович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент пробації;;Гришин;Виктор;Германнович;21; Київський національний університет будівництва і архітектури </v>
       </c>
       <c r="B190" s="12" t="s">
         <v>195</v>
@@ -7009,21 +8899,29 @@
         <v>218</v>
       </c>
       <c r="E190" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Гришин;Виктор;Германнович}</v>
-      </c>
-      <c r="K190" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Гришин;Виктор;Германнович</v>
+      </c>
+      <c r="G190" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>21</v>
+      </c>
+      <c r="H190" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Київський національний університет будівництва і архітектури </v>
+      </c>
+      <c r="L190" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="L190" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M190" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Гришин;Виктор Германнович</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="191" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A191" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент Державної кримінально-виконавчої служби України&gt;{Осипов;Александр;Ильяович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент Державної кримінально-виконавчої служби України;;Осипов;Александр;Ильяович;26; Чернівецький національний університет ім. Юрія Федьковича </v>
       </c>
       <c r="B191" s="12" t="s">
         <v>195</v>
@@ -7032,21 +8930,29 @@
         <v>219</v>
       </c>
       <c r="E191" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Осипов;Александр;Ильяович}</v>
-      </c>
-      <c r="K191" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Осипов;Александр;Ильяович</v>
+      </c>
+      <c r="G191" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>26</v>
+      </c>
+      <c r="H191" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Чернівецький національний університет ім. Юрія Федьковича </v>
+      </c>
+      <c r="L191" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="L191" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M191" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Осипов;Александр Ильяович</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="192" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A192" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент ресурсного забезпечення Державної кримінально-виконавчої служби України&gt;{Стрелков;Роберт;Яковович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент ресурсного забезпечення Державної кримінально-виконавчої служби України;;Стрелков;Роберт;Яковович;29; Полтавський національний технічний університет ім. Юрія Кондратюка </v>
       </c>
       <c r="B192" s="12" t="s">
         <v>195</v>
@@ -7055,21 +8961,29 @@
         <v>220</v>
       </c>
       <c r="E192" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Стрелков;Роберт;Яковович}</v>
-      </c>
-      <c r="K192" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Стрелков;Роберт;Яковович</v>
+      </c>
+      <c r="G192" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>29</v>
+      </c>
+      <c r="H192" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Полтавський національний технічний університет ім. Юрія Кондратюка </v>
+      </c>
+      <c r="L192" s="16" t="s">
         <v>419</v>
       </c>
-      <c r="L192" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M192" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Стрелков;Роберт Яковович</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="193" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A193" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Департамент внутрішнього аудиту&gt;{Доронин;Андрей;Витальевич}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Департамент внутрішнього аудиту;;Доронин;Андрей;Витальевич;5; Університет економіки і права «Крок» </v>
       </c>
       <c r="B193" s="12" t="s">
         <v>195</v>
@@ -7078,21 +8992,29 @@
         <v>221</v>
       </c>
       <c r="E193" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Доронин;Андрей;Витальевич}</v>
-      </c>
-      <c r="K193" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Доронин;Андрей;Витальевич</v>
+      </c>
+      <c r="G193" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>5</v>
+      </c>
+      <c r="H193" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Університет економіки і права «Крок» </v>
+      </c>
+      <c r="L193" s="16" t="s">
         <v>420</v>
       </c>
-      <c r="L193" s="5" t="str">
-        <f t="shared" si="11"/>
+      <c r="M193" s="5" t="str">
+        <f t="shared" si="19"/>
         <v>Доронин;Андрей Витальевич</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="194" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A194" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>Міністерство юстиції України&lt;Сектор мобілізаційної роботи та територіальної оборони&gt;{Белов;Артур;Михаилович}</v>
+        <f t="shared" ca="1" si="15"/>
+        <v xml:space="preserve">Міністерство юстиції України;Сектор мобілізаційної роботи та територіальної оборони;;Белов;Артур;Михаилович;14; Донецький національний технічний університет </v>
       </c>
       <c r="B194" s="12" t="s">
         <v>195</v>
@@ -7101,21 +9023,29 @@
         <v>222</v>
       </c>
       <c r="E194" s="5" t="str">
-        <f t="shared" si="10"/>
-        <v>{Белов;Артур;Михаилович}</v>
-      </c>
-      <c r="K194" s="16" t="s">
+        <f t="shared" si="16"/>
+        <v>Белов;Артур;Михаилович</v>
+      </c>
+      <c r="G194" s="5">
+        <f t="shared" ca="1" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="H194" s="5" t="str">
+        <f t="shared" ca="1" si="18"/>
+        <v xml:space="preserve"> Донецький національний технічний університет </v>
+      </c>
+      <c r="L194" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="L194" s="5" t="str">
-        <f t="shared" ref="L194:L198" si="12">REPLACE(K194,SEARCH(" ",K194,1),1,";")</f>
+      <c r="M194" s="5" t="str">
+        <f t="shared" ref="M194:M198" si="20">REPLACE(L194,SEARCH(" ",L194,1),1,";")</f>
         <v>Белов;Артур Михаилович</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="195" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A195" s="5" t="str">
-        <f t="shared" ref="A195:A198" si="13">B195&amp; "&lt;" &amp;C195  &amp;"&gt;" &amp; D195&amp; E195</f>
-        <v>Міністерство юстиції України&lt;Управління медичного забезпечення&gt;{Селиверстов;Артур;Якунович}</v>
+        <f t="shared" ref="A195:A198" ca="1" si="21">B195 &amp; ";" &amp; C195  &amp;";" &amp; D195&amp;";"&amp; E195&amp;";"&amp;G195&amp;";"&amp;H195</f>
+        <v xml:space="preserve">Міністерство юстиції України;Управління медичного забезпечення;;Селиверстов;Артур;Якунович;13; Тернопільський національний технічний університет ім. Івана Пулюя </v>
       </c>
       <c r="B195" s="12" t="s">
         <v>195</v>
@@ -7124,21 +9054,29 @@
         <v>223</v>
       </c>
       <c r="E195" s="5" t="str">
-        <f t="shared" ref="E195:E198" si="14">"{" &amp; REPLACE(L195,SEARCH(" ",L195,1),1,";") &amp; "}"</f>
-        <v>{Селиверстов;Артур;Якунович}</v>
-      </c>
-      <c r="K195" s="16" t="s">
+        <f t="shared" ref="E195:E198" si="22">"" &amp; REPLACE(M195,SEARCH(" ",M195,1),1,";") &amp; ""</f>
+        <v>Селиверстов;Артур;Якунович</v>
+      </c>
+      <c r="G195" s="5">
+        <f t="shared" ref="G195:G198" ca="1" si="23">RANDBETWEEN(1,38)</f>
+        <v>13</v>
+      </c>
+      <c r="H195" s="5" t="str">
+        <f t="shared" ref="H195:H198" ca="1" si="24">VLOOKUP(RANDBETWEEN(1,34),$J$2:$K$35,2)</f>
+        <v xml:space="preserve"> Тернопільський національний технічний університет ім. Івана Пулюя </v>
+      </c>
+      <c r="L195" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="L195" s="5" t="str">
-        <f t="shared" si="12"/>
+      <c r="M195" s="5" t="str">
+        <f t="shared" si="20"/>
         <v>Селиверстов;Артур Якунович</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="196" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A196" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>Міністерство юстиції України&lt;Відділ інспектування дотримання прав людини в пенітенціарних закладах&gt;{Лихачёв;Юлий;Романович}</v>
+        <f t="shared" ca="1" si="21"/>
+        <v xml:space="preserve">Міністерство юстиції України;Відділ інспектування дотримання прав людини в пенітенціарних закладах;;Лихачёв;Юлий;Романович;29; Сумський державний університет </v>
       </c>
       <c r="B196" s="12" t="s">
         <v>195</v>
@@ -7147,21 +9085,29 @@
         <v>224</v>
       </c>
       <c r="E196" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>{Лихачёв;Юлий;Романович}</v>
-      </c>
-      <c r="K196" s="16" t="s">
+        <f t="shared" si="22"/>
+        <v>Лихачёв;Юлий;Романович</v>
+      </c>
+      <c r="G196" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>29</v>
+      </c>
+      <c r="H196" s="5" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v xml:space="preserve"> Сумський державний університет </v>
+      </c>
+      <c r="L196" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="L196" s="5" t="str">
-        <f t="shared" si="12"/>
+      <c r="M196" s="5" t="str">
+        <f t="shared" si="20"/>
         <v>Лихачёв;Юлий Романович</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="197" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A197" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>Міністерство юстиції України&lt;Директорат з прав людини, доступу до правосуддя та правової обізнаності&gt;{Наумов;Илларион;Германнович}</v>
+        <f t="shared" ca="1" si="21"/>
+        <v xml:space="preserve">Міністерство юстиції України;Директорат з прав людини, доступу до правосуддя та правової обізнаності;;Наумов;Илларион;Германнович;29; Київський національний економічний університет ім. Вадима Гетьмана  </v>
       </c>
       <c r="B197" s="12" t="s">
         <v>195</v>
@@ -7170,21 +9116,29 @@
         <v>225</v>
       </c>
       <c r="E197" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>{Наумов;Илларион;Германнович}</v>
-      </c>
-      <c r="K197" s="16" t="s">
+        <f t="shared" si="22"/>
+        <v>Наумов;Илларион;Германнович</v>
+      </c>
+      <c r="G197" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>29</v>
+      </c>
+      <c r="H197" s="5" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v xml:space="preserve"> Київський національний економічний університет ім. Вадима Гетьмана  </v>
+      </c>
+      <c r="L197" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="L197" s="5" t="str">
-        <f t="shared" si="12"/>
+      <c r="M197" s="5" t="str">
+        <f t="shared" si="20"/>
         <v>Наумов;Илларион Германнович</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="198" spans="1:13" ht="18.600000000000001" thickBot="1">
       <c r="A198" s="5" t="str">
-        <f t="shared" si="13"/>
-        <v>Міністерство юстиції України&lt;Директорат стратегічного планування та європейської інтеграції&gt;{Тарасов;Вальтер;Ильяович}</v>
+        <f ca="1">B198 &amp; ";" &amp; C198  &amp;";" &amp; D198&amp;";"&amp; E198&amp;";"&amp;G198&amp;";"&amp;H198</f>
+        <v xml:space="preserve">Міністерство юстиції України;Директорат стратегічного планування та європейської інтеграції;;Тарасов;Вальтер;Ильяович;35; Київський національний університет ім.Т. Г. Шевченко </v>
       </c>
       <c r="B198" s="12" t="s">
         <v>195</v>
@@ -7193,229 +9147,237 @@
         <v>226</v>
       </c>
       <c r="E198" s="5" t="str">
-        <f t="shared" si="14"/>
-        <v>{Тарасов;Вальтер;Ильяович}</v>
-      </c>
-      <c r="K198" s="16" t="s">
+        <f t="shared" si="22"/>
+        <v>Тарасов;Вальтер;Ильяович</v>
+      </c>
+      <c r="G198" s="5">
+        <f t="shared" ca="1" si="23"/>
+        <v>35</v>
+      </c>
+      <c r="H198" s="5" t="str">
+        <f t="shared" ca="1" si="24"/>
+        <v xml:space="preserve"> Київський національний університет ім.Т. Г. Шевченко </v>
+      </c>
+      <c r="L198" s="16" t="s">
         <v>425</v>
       </c>
-      <c r="L198" s="5" t="str">
-        <f t="shared" si="12"/>
+      <c r="M198" s="5" t="str">
+        <f t="shared" si="20"/>
         <v>Тарасов;Вальтер Ильяович</v>
       </c>
     </row>
-    <row r="199" spans="1:12">
-      <c r="K199" s="16" t="s">
+    <row r="199" spans="1:13">
+      <c r="L199" s="16" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="200" spans="1:12">
-      <c r="K200" s="16" t="s">
+    <row r="200" spans="1:13">
+      <c r="L200" s="16" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="201" spans="1:12">
-      <c r="K201" s="16" t="s">
+    <row r="201" spans="1:13">
+      <c r="L201" s="16" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="202" spans="1:12">
-      <c r="K202" s="16" t="s">
+    <row r="202" spans="1:13">
+      <c r="L202" s="16" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="203" spans="1:12">
-      <c r="K203" s="16" t="s">
+    <row r="203" spans="1:13">
+      <c r="L203" s="16" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="204" spans="1:12">
-      <c r="K204" s="16" t="s">
+    <row r="204" spans="1:13">
+      <c r="L204" s="16" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="205" spans="1:12">
-      <c r="K205" s="16" t="s">
+    <row r="205" spans="1:13">
+      <c r="L205" s="16" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="206" spans="1:12">
-      <c r="K206" s="5" t="s">
+    <row r="206" spans="1:13">
+      <c r="L206" s="5" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="207" spans="1:12">
-      <c r="K207" s="5" t="s">
+    <row r="207" spans="1:13">
+      <c r="L207" s="5" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="208" spans="1:12">
-      <c r="K208" s="5" t="s">
+    <row r="208" spans="1:13">
+      <c r="L208" s="5" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="209" spans="11:11">
-      <c r="K209" s="5" t="s">
+    <row r="209" spans="12:12">
+      <c r="L209" s="5" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="210" spans="11:11">
-      <c r="K210" s="5" t="s">
+    <row r="210" spans="12:12">
+      <c r="L210" s="5" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="211" spans="11:11">
-      <c r="K211" s="5" t="s">
+    <row r="211" spans="12:12">
+      <c r="L211" s="5" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="212" spans="11:11">
-      <c r="K212" s="5" t="s">
+    <row r="212" spans="12:12">
+      <c r="L212" s="5" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="213" spans="11:11">
-      <c r="K213" s="5" t="s">
+    <row r="213" spans="12:12">
+      <c r="L213" s="5" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="214" spans="11:11">
-      <c r="K214" s="5" t="s">
+    <row r="214" spans="12:12">
+      <c r="L214" s="5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="215" spans="11:11">
-      <c r="K215" s="5" t="s">
+    <row r="215" spans="12:12">
+      <c r="L215" s="5" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="216" spans="11:11">
-      <c r="K216" s="5" t="s">
+    <row r="216" spans="12:12">
+      <c r="L216" s="5" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="217" spans="11:11">
-      <c r="K217" s="5" t="s">
+    <row r="217" spans="12:12">
+      <c r="L217" s="5" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="218" spans="11:11">
-      <c r="K218" s="5" t="s">
+    <row r="218" spans="12:12">
+      <c r="L218" s="5" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="219" spans="11:11">
-      <c r="K219" s="5" t="s">
+    <row r="219" spans="12:12">
+      <c r="L219" s="5" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="220" spans="11:11">
-      <c r="K220" s="5" t="s">
+    <row r="220" spans="12:12">
+      <c r="L220" s="5" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="221" spans="11:11">
-      <c r="K221" s="5" t="s">
+    <row r="221" spans="12:12">
+      <c r="L221" s="5" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="222" spans="11:11">
-      <c r="K222" s="5" t="s">
+    <row r="222" spans="12:12">
+      <c r="L222" s="5" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="223" spans="11:11">
-      <c r="K223" s="5" t="s">
+    <row r="223" spans="12:12">
+      <c r="L223" s="5" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="224" spans="11:11">
-      <c r="K224" s="5" t="s">
+    <row r="224" spans="12:12">
+      <c r="L224" s="5" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="225" spans="11:11">
-      <c r="K225" s="5" t="s">
+    <row r="225" spans="12:12">
+      <c r="L225" s="5" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="226" spans="11:11">
-      <c r="K226" s="5" t="s">
+    <row r="226" spans="12:12">
+      <c r="L226" s="5" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="227" spans="11:11">
-      <c r="K227" s="5" t="s">
+    <row r="227" spans="12:12">
+      <c r="L227" s="5" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="228" spans="11:11">
-      <c r="K228" s="5" t="s">
+    <row r="228" spans="12:12">
+      <c r="L228" s="5" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="229" spans="11:11">
-      <c r="K229" s="5" t="s">
+    <row r="229" spans="12:12">
+      <c r="L229" s="5" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="230" spans="11:11">
-      <c r="K230" s="5" t="s">
+    <row r="230" spans="12:12">
+      <c r="L230" s="5" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="231" spans="11:11">
-      <c r="K231" s="5" t="s">
+    <row r="231" spans="12:12">
+      <c r="L231" s="5" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="232" spans="11:11">
-      <c r="K232" s="5" t="s">
+    <row r="232" spans="12:12">
+      <c r="L232" s="5" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="233" spans="11:11">
-      <c r="K233" s="5" t="s">
+    <row r="233" spans="12:12">
+      <c r="L233" s="5" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="234" spans="11:11">
-      <c r="K234" s="5" t="s">
+    <row r="234" spans="12:12">
+      <c r="L234" s="5" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="235" spans="11:11">
-      <c r="K235" s="5" t="s">
+    <row r="235" spans="12:12">
+      <c r="L235" s="5" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="236" spans="11:11">
-      <c r="K236" s="5" t="s">
+    <row r="236" spans="12:12">
+      <c r="L236" s="5" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="237" spans="11:11">
-      <c r="K237" s="5" t="s">
+    <row r="237" spans="12:12">
+      <c r="L237" s="5" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="238" spans="11:11">
-      <c r="K238" s="5" t="s">
+    <row r="238" spans="12:12">
+      <c r="L238" s="5" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="239" spans="11:11">
-      <c r="K239" s="5" t="s">
+    <row r="239" spans="12:12">
+      <c r="L239" s="5" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="240" spans="11:11">
-      <c r="K240" s="5" t="s">
+    <row r="240" spans="12:12">
+      <c r="L240" s="5" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="241" spans="11:11">
-      <c r="K241" s="5" t="s">
+    <row r="241" spans="12:12">
+      <c r="L241" s="5" t="s">
         <v>468</v>
       </c>
     </row>
